--- a/Analysis/AST/ast_analysis_results.xlsx
+++ b/Analysis/AST/ast_analysis_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_42Ga7yjlA5oLJCd</t>
+          <t>R_4EEZWAH8SF10F8e</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.0625</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
@@ -496,7 +496,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -505,18 +505,18 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_9j8Niq4DZA1y7Op</t>
+          <t>R_4AKE20ENCrCGxUl</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
@@ -528,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,18 +537,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_92Xn58Elv9fCbLJ</t>
+          <t>R_9aZFWvCRMGokDwl</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.9375</v>
+        <v>3.25</v>
       </c>
       <c r="C4" t="n">
         <v>16</v>
@@ -576,11 +576,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_4pWgwYKsPFaTWcp</t>
+          <t>R_4eV7QBpawwD6eOr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.0625</v>
+        <v>3.1875</v>
       </c>
       <c r="C5" t="n">
         <v>16</v>
@@ -608,11 +608,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_4ELN7Q0714WIXDZ</t>
+          <t>R_91jRA37lX3YUEbP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.25</v>
+        <v>5.875</v>
       </c>
       <c r="C6" t="n">
         <v>16</v>
@@ -640,11 +640,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_9fPoQx2VAiJtvot</t>
+          <t>R_4PvVrWZ4ldg9ZuE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.625</v>
+        <v>8.3125</v>
       </c>
       <c r="C7" t="n">
         <v>16</v>
@@ -672,11 +672,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_4EEZWAH8SF10F8e</t>
+          <t>R_9Y3cXt4ARx4xD6T</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.0625</v>
+        <v>5.6875</v>
       </c>
       <c r="C8" t="n">
         <v>16</v>
@@ -704,11 +704,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_4AKE20ENCrCGxUl</t>
+          <t>R_9N32winq5vbF1El</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.125</v>
       </c>
       <c r="C9" t="n">
         <v>16</v>
@@ -736,11 +736,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_9aZFWvCRMGokDwl</t>
+          <t>R_9uYGNjx9yWaODxD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.25</v>
+        <v>6.8125</v>
       </c>
       <c r="C10" t="n">
         <v>16</v>
@@ -768,11 +768,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_4eV7QBpawwD6eOr</t>
+          <t>R_9OPvlHXlbPmz754</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.1875</v>
+        <v>4.5625</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
@@ -800,11 +800,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_91jRA37lX3YUEbP</t>
+          <t>R_9x36NNwdNT2QnEB</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.875</v>
+        <v>6.4375</v>
       </c>
       <c r="C12" t="n">
         <v>16</v>
@@ -832,11 +832,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_4PvVrWZ4ldg9ZuE</t>
+          <t>R_4DfI1n39Bzpi2xH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.3125</v>
+        <v>4.1875</v>
       </c>
       <c r="C13" t="n">
         <v>16</v>
@@ -864,11 +864,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R_9Y3cXt4ARx4xD6T</t>
+          <t>R_9emki3uWpm88jEt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.6875</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>16</v>
@@ -896,11 +896,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_9N32winq5vbF1El</t>
+          <t>R_91tsT1u49aBUhks</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.125</v>
+        <v>6.6875</v>
       </c>
       <c r="C15" t="n">
         <v>16</v>
@@ -928,11 +928,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_9uYGNjx9yWaODxD</t>
+          <t>R_9LAP8tEg6HUmoat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.8125</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="n">
         <v>16</v>
@@ -944,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -960,11 +960,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_9OPvlHXlbPmz754</t>
+          <t>R_4GCVAoEofofJmxX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.5625</v>
+        <v>5.125</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
@@ -992,11 +992,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_4rHDTNQ0TLPg3iz</t>
+          <t>R_4dtvPF6tKUsY2Dr</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.1875</v>
+        <v>5.75</v>
       </c>
       <c r="C18" t="n">
         <v>16</v>
@@ -1024,11 +1024,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_9x36NNwdNT2QnEB</t>
+          <t>R_9bTZgIxUTHOBB65</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.4375</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>16</v>
@@ -1056,11 +1056,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_4DfI1n39Bzpi2xH</t>
+          <t>R_4E1hPlVcrRYDEgI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.1875</v>
+        <v>5.125</v>
       </c>
       <c r="C20" t="n">
         <v>16</v>
@@ -1088,11 +1088,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_9emki3uWpm88jEt</t>
+          <t>R_9HiPuZ7ggaUWYXm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.1875</v>
       </c>
       <c r="C21" t="n">
         <v>16</v>
@@ -1120,41 +1120,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_9gLQpOlUhCZbZf0</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>R_4npneE7C0d2fzFf</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.375</v>
+      </c>
       <c r="C22" t="n">
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_91tsT1u49aBUhks</t>
+          <t>R_95Avzk7ufiikhMK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.6875</v>
+        <v>4.875</v>
       </c>
       <c r="C23" t="n">
         <v>16</v>
@@ -1182,11 +1184,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_9LAP8tEg6HUmoat</t>
+          <t>R_4QWwuNV77zEYamm</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.5</v>
+        <v>3.375</v>
       </c>
       <c r="C24" t="n">
         <v>16</v>
@@ -1198,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1214,11 +1216,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_4GCVAoEofofJmxX</t>
+          <t>R_4Nn2YPE5XSoLk77</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.125</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>16</v>
@@ -1246,11 +1248,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_4dtvPF6tKUsY2Dr</t>
+          <t>R_92mbrhLaUBLIZyA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.75</v>
+        <v>4.9375</v>
       </c>
       <c r="C26" t="n">
         <v>16</v>
@@ -1278,11 +1280,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R_9bTZgIxUTHOBB65</t>
+          <t>R_41tTqc4rClQAQ4c</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>4.4375</v>
       </c>
       <c r="C27" t="n">
         <v>16</v>
@@ -1310,37 +1312,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R_459tvSmsiMQmAJb</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>R_49TyR8AUyP9f0KR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.125</v>
+      </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R_9GEAlR8ckucpR5i</t>
+          <t>R_99UYrIivDcdeF7r</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1356,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1372,11 +1376,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R_95AaIqXMdbZ4Fhr</t>
+          <t>R_9d0I0cLEUygFnzD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.375</v>
+        <v>4.625</v>
       </c>
       <c r="C30" t="n">
         <v>16</v>
@@ -1404,11 +1408,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R_4lPSocYI5nk7Coh</t>
+          <t>R_47kRU4DvHWNnjGG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="C31" t="n">
         <v>16</v>
@@ -1436,71 +1440,75 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R_4rHse7kHHEjzHly</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>R_9cj5AYT2isbQ025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5.375</v>
+      </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R_4DYHJAe9FwcAbYM</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>R_96nUPcB7vcJX3jf</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.875</v>
+      </c>
       <c r="C33" t="n">
         <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R_4E1hPlVcrRYDEgI</t>
+          <t>R_4af1NjqrrNzcgut</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.125</v>
+        <v>5.9375</v>
       </c>
       <c r="C34" t="n">
         <v>16</v>
@@ -1528,71 +1536,75 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R_9IrA4sK4uNKxOU1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>R_9ctFQKbw2qIyZBw</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.875</v>
+      </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R_4flYM0NAGQpPrrZ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>R_4BsQya8zBjRULSx</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.0625</v>
+      </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R_9HiPuZ7ggaUWYXm</t>
+          <t>R_9UVGly5LAKAE4DH</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.1875</v>
+        <v>4.875</v>
       </c>
       <c r="C37" t="n">
         <v>16</v>
@@ -1620,11 +1632,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R_4npneE7C0d2fzFf</t>
+          <t>R_9hLtTGFf64ROzgA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.375</v>
+        <v>4.75</v>
       </c>
       <c r="C38" t="n">
         <v>16</v>
@@ -1652,11 +1664,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R_95Avzk7ufiikhMK</t>
+          <t>R_438xPgSQurWsGJ7</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.875</v>
+        <v>5.5625</v>
       </c>
       <c r="C39" t="n">
         <v>16</v>
@@ -1684,11 +1696,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R_4QWwuNV77zEYamm</t>
+          <t>R_5EnHXfM9Ih1jcUw</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.375</v>
+        <v>5.375</v>
       </c>
       <c r="C40" t="n">
         <v>16</v>
@@ -1716,11 +1728,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R_4Nn2YPE5XSoLk77</t>
+          <t>R_4ooRca600URzSMF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>4.8125</v>
       </c>
       <c r="C41" t="n">
         <v>16</v>
@@ -1748,11 +1760,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R_92mbrhLaUBLIZyA</t>
+          <t>R_9z60gjDTdtBwz7i</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.9375</v>
+        <v>4.4375</v>
       </c>
       <c r="C42" t="n">
         <v>16</v>
@@ -1780,41 +1792,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R_4lCiksiXKcfJDNf</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>R_4z5hWHzjGPmlo3v</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5.5625</v>
+      </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R_41tTqc4rClQAQ4c</t>
+          <t>R_4R46XO9OwMarEXe</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.4375</v>
+        <v>4.5625</v>
       </c>
       <c r="C44" t="n">
         <v>16</v>
@@ -1842,11 +1856,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R_49TyR8AUyP9f0KR</t>
+          <t>R_4pyzOQaqk31zidB</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.125</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
         <v>16</v>
@@ -1874,11 +1888,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R_99UYrIivDcdeF7r</t>
+          <t>R_9RXtm3TtL486t6z</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>3.625</v>
       </c>
       <c r="C46" t="n">
         <v>16</v>
@@ -1903,327 +1917,143 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R_9d0I0cLEUygFnzD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="C47" t="n">
-        <v>16</v>
-      </c>
-      <c r="D47" t="n">
-        <v>16</v>
-      </c>
-      <c r="E47" t="n">
-        <v>16</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R_425z6FKj0bv5S0N</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>No</t>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R_9kBu3A4VzYEc7u4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Total Participants</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R_47kRU4DvHWNnjGG</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="C50" t="n">
-        <v>16</v>
-      </c>
-      <c r="D50" t="n">
-        <v>16</v>
-      </c>
-      <c r="E50" t="n">
-        <v>16</v>
-      </c>
-      <c r="F50" t="n">
-        <v>16</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Participants with Valid Ratings</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R_9cj5AYT2isbQ025</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="C51" t="n">
-        <v>16</v>
-      </c>
-      <c r="D51" t="n">
-        <v>16</v>
-      </c>
-      <c r="E51" t="n">
-        <v>16</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Participants with Missing Ratings</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>R_4emUmach5eEaD7j</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>R_4LTZEyvJAjeBq3o</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Mean Reverse-Scored Rating - Mean</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5.1875</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>R_9EoZrU2zlZGVxmh</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Mean Reverse-Scored Rating - SD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.0259</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>R_9FLpP7aU380tJw8</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Mean Reverse-Scored Rating - Min</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mean Reverse-Scored Rating - Max</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8.3125</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mean Reverse-Scored Rating - Median</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5.0000</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Total Participants</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Participants with Valid Ratings</t>
+          <t>Total Ratings per Participant - Mean</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16.00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Participants with Missing Ratings</t>
+          <t>Valid Ratings per Participant - Mean</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16.00</t>
         </is>
       </c>
     </row>
@@ -2234,116 +2064,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mean Reverse-Scored Rating - Mean</t>
+          <t>Participants with Description Data</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5.2820</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mean Reverse-Scored Rating - SD</t>
+          <t>Participants without Description Data</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1.0209</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Mean Reverse-Scored Rating - Min</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>3.1875</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Mean Reverse-Scored Rating - Max</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>8.3125</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Mean Reverse-Scored Rating - Median</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>5.1250</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Total Ratings per Participant - Mean</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Valid Ratings per Participant - Mean</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Participants with Description Data</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Participants without Description Data</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2411,7 +2149,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_42Ga7yjlA5oLJCd</t>
+          <t>R_4EEZWAH8SF10F8e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2427,25 +2165,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_9j8Niq4DZA1y7Op</t>
+          <t>R_4AKE20ENCrCGxUl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2461,25 +2199,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_92Xn58Elv9fCbLJ</t>
+          <t>R_9aZFWvCRMGokDwl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2513,7 +2251,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_4pWgwYKsPFaTWcp</t>
+          <t>R_4eV7QBpawwD6eOr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2547,7 +2285,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_4ELN7Q0714WIXDZ</t>
+          <t>R_91jRA37lX3YUEbP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2581,7 +2319,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_9fPoQx2VAiJtvot</t>
+          <t>R_4PvVrWZ4ldg9ZuE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2615,7 +2353,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_4EEZWAH8SF10F8e</t>
+          <t>R_9Y3cXt4ARx4xD6T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2649,7 +2387,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_4AKE20ENCrCGxUl</t>
+          <t>R_9N32winq5vbF1El</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2683,7 +2421,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_9aZFWvCRMGokDwl</t>
+          <t>R_9uYGNjx9yWaODxD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2717,7 +2455,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_4eV7QBpawwD6eOr</t>
+          <t>R_9OPvlHXlbPmz754</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2751,7 +2489,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_91jRA37lX3YUEbP</t>
+          <t>R_9x36NNwdNT2QnEB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2785,7 +2523,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_4PvVrWZ4ldg9ZuE</t>
+          <t>R_4DfI1n39Bzpi2xH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2819,7 +2557,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R_9Y3cXt4ARx4xD6T</t>
+          <t>R_9emki3uWpm88jEt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2853,7 +2591,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_9N32winq5vbF1El</t>
+          <t>R_91tsT1u49aBUhks</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2887,7 +2625,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_9uYGNjx9yWaODxD</t>
+          <t>R_9LAP8tEg6HUmoat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2910,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2921,7 +2659,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_9OPvlHXlbPmz754</t>
+          <t>R_4GCVAoEofofJmxX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2955,7 +2693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_4rHDTNQ0TLPg3iz</t>
+          <t>R_4dtvPF6tKUsY2Dr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2989,7 +2727,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_9x36NNwdNT2QnEB</t>
+          <t>R_9bTZgIxUTHOBB65</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3023,7 +2761,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_4DfI1n39Bzpi2xH</t>
+          <t>R_4E1hPlVcrRYDEgI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3057,7 +2795,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_9emki3uWpm88jEt</t>
+          <t>R_9HiPuZ7ggaUWYXm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3091,41 +2829,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_9gLQpOlUhCZbZf0</t>
+          <t>R_4npneE7C0d2fzFf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_91tsT1u49aBUhks</t>
+          <t>R_95Avzk7ufiikhMK</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3159,7 +2897,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_9LAP8tEg6HUmoat</t>
+          <t>R_4QWwuNV77zEYamm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3182,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3193,7 +2931,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_4GCVAoEofofJmxX</t>
+          <t>R_4Nn2YPE5XSoLk77</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3227,7 +2965,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_4dtvPF6tKUsY2Dr</t>
+          <t>R_92mbrhLaUBLIZyA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3261,7 +2999,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R_9bTZgIxUTHOBB65</t>
+          <t>R_41tTqc4rClQAQ4c</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3295,41 +3033,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R_459tvSmsiMQmAJb</t>
+          <t>R_49TyR8AUyP9f0KR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R_9GEAlR8ckucpR5i</t>
+          <t>R_99UYrIivDcdeF7r</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3352,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3363,7 +3101,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R_95AaIqXMdbZ4Fhr</t>
+          <t>R_9d0I0cLEUygFnzD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3397,7 +3135,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R_4lPSocYI5nk7Coh</t>
+          <t>R_47kRU4DvHWNnjGG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3431,75 +3169,75 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R_4rHse7kHHEjzHly</t>
+          <t>R_9cj5AYT2isbQ025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R_4DYHJAe9FwcAbYM</t>
+          <t>R_96nUPcB7vcJX3jf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>16</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R_4E1hPlVcrRYDEgI</t>
+          <t>R_4af1NjqrrNzcgut</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3533,75 +3271,75 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R_9IrA4sK4uNKxOU1</t>
+          <t>R_9ctFQKbw2qIyZBw</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R_4flYM0NAGQpPrrZ</t>
+          <t>R_4BsQya8zBjRULSx</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R_9HiPuZ7ggaUWYXm</t>
+          <t>R_9UVGly5LAKAE4DH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3635,7 +3373,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R_4npneE7C0d2fzFf</t>
+          <t>R_9hLtTGFf64ROzgA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3669,7 +3407,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R_95Avzk7ufiikhMK</t>
+          <t>R_438xPgSQurWsGJ7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3703,7 +3441,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R_4QWwuNV77zEYamm</t>
+          <t>R_5EnHXfM9Ih1jcUw</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3737,7 +3475,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R_4Nn2YPE5XSoLk77</t>
+          <t>R_4ooRca600URzSMF</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3771,7 +3509,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R_92mbrhLaUBLIZyA</t>
+          <t>R_9z60gjDTdtBwz7i</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3805,41 +3543,41 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R_4lCiksiXKcfJDNf</t>
+          <t>R_4z5hWHzjGPmlo3v</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Complete</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R_41tTqc4rClQAQ4c</t>
+          <t>R_4R46XO9OwMarEXe</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3873,7 +3611,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R_49TyR8AUyP9f0KR</t>
+          <t>R_4pyzOQaqk31zidB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3907,7 +3645,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R_99UYrIivDcdeF7r</t>
+          <t>R_9RXtm3TtL486t6z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3935,312 +3673,6 @@
       <c r="H46" t="inlineStr">
         <is>
           <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R_9d0I0cLEUygFnzD</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>16</v>
-      </c>
-      <c r="D47" t="n">
-        <v>16</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>16</v>
-      </c>
-      <c r="G47" t="n">
-        <v>16</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R_425z6FKj0bv5S0N</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>R_9kBu3A4VzYEc7u4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>R_47kRU4DvHWNnjGG</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>16</v>
-      </c>
-      <c r="D50" t="n">
-        <v>16</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>16</v>
-      </c>
-      <c r="G50" t="n">
-        <v>16</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>R_9cj5AYT2isbQ025</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>16</v>
-      </c>
-      <c r="D51" t="n">
-        <v>16</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>16</v>
-      </c>
-      <c r="G51" t="n">
-        <v>16</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>R_4emUmach5eEaD7j</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>R_4LTZEyvJAjeBq3o</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>R_9EoZrU2zlZGVxmh</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>R_9FLpP7aU380tJw8</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>No Data</t>
         </is>
       </c>
     </row>
@@ -4255,7 +3687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F625"/>
+  <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4301,7 +3733,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I think I'll get the job as usual.</t>
+          <t>I will be able to prepare what to say beforehand and I'm slightly nore confident</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -4315,7 +3747,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Really low chance of getting the job</t>
+          <t>The chances of getting into the job are low as I am not as competent as the others</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -4329,7 +3761,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I think she is fine with it LOL</t>
+          <t>Her sister politely thanked us for the gift</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -4343,7 +3775,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A sense of nostalgia hits. But more so, how much this friend has grown up</t>
+          <t>The close friend was very happy to see me too and I was excited to see her</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -4357,7 +3789,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I think it will be smooth. Awkward, but smooth</t>
+          <t>I am extremely nervous and I don't think it is going to turn out well</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -4371,7 +3803,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Turns out there is still too much office work :(</t>
+          <t>I am a little hopeful and will try my best to start this job enthusiastically</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -4385,7 +3817,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Damn son... Life is amazingly tough</t>
+          <t>I realise how old I am and reflect on what I have achieved in the past years</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -4399,7 +3831,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nostalgia hits you harder than a truck</t>
+          <t>I found many sentimental items and began looking at them and sorting them for hours</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -4413,7 +3845,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bad sign.</t>
+          <t>I feel very annoyed and frustrated because I am already anxious about the results</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -4427,7 +3859,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Uh-oh. Things about to hit the roof...</t>
+          <t>My partner shares bad news</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -4441,7 +3873,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Just a weird uncle. Nothing wrong but erm... can I have some privacy pls sir?</t>
+          <t>I saw a creepy guy waiting outside the car and I am anxious</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -4455,7 +3887,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ok... My car is about to blow up. WHATS WRONG???</t>
+          <t>I start to panic and think that there is something wrong with the car</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -4469,7 +3901,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I think I'm overly energetic</t>
+          <t>the last presentation was not very good but I motivated myself by telling myself that I can do better this time</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -4483,7 +3915,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>It will be another mid review just for him to hit KPI</t>
+          <t>I feel extremely anxious because I think my quality of work was not very good for the past few months</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -4497,7 +3929,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I hope I impress them!</t>
+          <t>i was afraid that I was doing something wrong and they were judging me</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -4511,7 +3943,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Approved.</t>
+          <t>He had a stern expression but I could only pretend that I didn't see it and continue</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -4525,7 +3957,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sds</t>
+          <t>I imagined forgetting what I wanted to say halfway, or tripping over my words, or not knowing how to answer the questions posed, and this feels really unpleasant because I know that I could have done better</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -4539,7 +3971,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sdfs</t>
+          <t>I realise that actually I am quite suitable for the job, and this makes me feel relieved and happy about myself, and that I have a chance to get the job</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -4553,7 +3985,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sfdsf</t>
+          <t>She would be pleasantly surprised because she got what she was looking forward to, so I would feel proud for being able to pick out what she wanted</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -4567,7 +3999,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sfddf</t>
+          <t>I am looking forward to meeting them after all these years and I am hopeful that we can still have the same dynamic as we did last time, and I am also excited to hear about her life updates as well as share about my own updates</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -4581,7 +4013,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adsa</t>
+          <t>I would run through all the different scenarios in my head and play them all out one by one as I wait, but even though im quite nervous, I still feel excited to meet the person and I hope we can get along</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -4595,7 +4027,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adsasda</t>
+          <t>I envision the job being challenging and fun and that I would enjoy the culture and environment a lot, so I feel excited and hopeful and I cannot wait to start at my new role</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -4609,7 +4041,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>I feel extremely grateful for everything that I have experienced so far and that I have been able to make so many good friends and meet so many amazing people, and even though I also run through some of the mistakes and regrets in my life, the good times would still dominate and I find that I have so much in life to be grateful for</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -4623,7 +4055,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>asdsa</t>
+          <t>I look back on fond memories and the nostalgia hits, and I start reminiscing the good old days, and this makes me feel a sense of gratitude and happiness</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -4637,7 +4069,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>I would be really anxious to know my results and the page freezing would add on to my stress, leading me to continue overthinking about my results as I do not know what to expect</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -4651,7 +4083,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>I would immediately think that something bad has happened, specifically something that I may have done to make them feel negatively or that they have been feeling off recently etc; basically that something has happened between us and that there is a problem they want to talk about and resolve, and I would immediately feel like I am at fault</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -4665,7 +4097,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>I would see a squirrel or a dog or some sort of animal, but after that I would start to feel uneasy and worry about what other things may be in the carpark or if there is someone hiding somewhere</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -4679,7 +4111,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>I would become worried and anxious because I don't know what the sign means so I would want to find somewhere where I can park and figure out what happened and how to fix it</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4693,7 +4125,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>I would have mixed feelings because the previous presentation did not go as well as i would have hoped and i would be worried that i would mess up this presentation too, then I would start overthinking about how it might go</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4707,7 +4139,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>I would think that the supervisor is unhappy with the quality of my work and that they are going to scold or criticise me, and thus I would not be looking forward to meeting them; I am also afraid that they may be too harsh or unreasonable and that I may not be able to control my emotions when receiving harsh feedback</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4721,7 +4153,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>Suddenly having the spotlight on me would make me feel very nervous and awkward, but at the same time i would try and seize the opportunity to present a good first impression</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4735,7 +4167,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>I see that they are frowning or confused and then I feel anxious and nervous because I realise that my pitch was not as good as I thought</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4749,7 +4181,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Feeling confident about the exam with a bit of nervousness</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4763,7 +4195,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sdas</t>
+          <t>Trying to be confident about it</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4777,7 +4209,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>adssaa</t>
+          <t>She being impressed by it</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4791,7 +4223,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>To start off where we left</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -4805,7 +4237,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sadsa</t>
+          <t>Slightly nervous</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -4819,7 +4251,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Excited</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -4833,7 +4265,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Thinking about good memories</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -4847,7 +4279,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Nostalgic</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -4861,7 +4293,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Nervous</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -4875,7 +4307,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dasd</t>
+          <t>Great to spend some meaningful time together</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -4889,7 +4321,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -4903,7 +4335,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>Worried</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -4917,7 +4349,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Feeling optimistic</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -4931,7 +4363,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>Trying to be positive</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -4945,7 +4377,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>asdasa</t>
+          <t>Slightly nervous but open</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -4959,7 +4391,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>Satisfied by it</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -4973,7 +4405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>i feel prepared for the rest of the examination as i can anticipate the flow of the conversation</t>
+          <t>i did relatively well until the examiner chases me away</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4987,7 +4419,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>i realise that this job fits my skill set perfectly, and am now more confident than i previously was.</t>
+          <t>i might be cooked, they know more than me</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -5001,7 +4433,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>the gift is something she has secretly been wanting for a long time, and her reaction is very satisfying to watch.</t>
+          <t>happy about the present</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -5015,7 +4447,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>i cannot wait to catch up with my friend after such a long time, and we have an amicable reunion.</t>
+          <t>they reamin the same and our freindship remains the same</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -5029,7 +4461,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>although i am nervous, i choose to trust my friend's intuition and decide to go with the flow and just have a nice night.</t>
+          <t>we hit off pretty well</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -5043,7 +4475,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>i am hopeful for the future and filled with newfound passion as i embark on this new chapter.</t>
+          <t>eager to rise in the ladders</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -5057,7 +4489,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>i am satisfied and proud of everything that i have achieved in my life thus far, and am looking forward to what life has in store for me in the coming year.</t>
+          <t>time past so far</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -5071,7 +4503,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>i experience nostalgia as i look through the good old times, reminiscing my childhood.</t>
+          <t>wow, the good old times</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -5085,7 +4517,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>i am anxious as i await my fate for this mod</t>
+          <t>anxously waiting for it to load</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -5099,7 +4531,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>i am intrigued but also kind of dread having a loaded and potentially heavy conversation after an already draining day.</t>
+          <t>my partner has something to share</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -5113,7 +4545,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>i imagine that i see a lake in the distance with the light shining off of its surface, creating a pretty view.</t>
+          <t>i see nothing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -5127,7 +4559,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i would be confused and anxious as to what the problem with my driving is</t>
+          <t>depends on what fault light comes up, stop safely if necssary</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -5141,7 +4573,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>thinking about my past successes helps to alleviate my anxiety slightly, but it does not fully soothe my nerves as i anticipate an important presentation the following day.</t>
+          <t>Thinking how i can improve</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -5155,7 +4587,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i would be apprehensive going into the meeting, but leave relieved because nothing negative was said about my performance.</t>
+          <t>they praise me</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -5169,7 +4601,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>i would be conscious and wary with so much attention on me, but it was no cause for worry as everyone was simply looking to introduce themselves to me.</t>
+          <t>welcoming me</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -5183,7 +4615,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>my manager is impressed with how i think on my feet and handle any curveballs thrown my way</t>
+          <t>happy to see me</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -5197,7 +4629,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>I will be able to prepare what to say beforehand and I'm slightly nore confident</t>
+          <t>It might go poorly</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -5211,7 +4643,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The chances of getting into the job are low as I am not as competent as the others</t>
+          <t>low chance of getting the job</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -5225,7 +4657,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Her sister politely thanked us for the gift</t>
+          <t>could be either happy or confused but most likely happy</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -5239,7 +4671,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The close friend was very happy to see me too and I was excited to see her</t>
+          <t>excited to catch up with them</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -5253,7 +4685,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>I am extremely nervous and I don't think it is going to turn out well</t>
+          <t>i imagined that there would be a lot of awkward silence during that date</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -5267,7 +4699,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I am a little hopeful and will try my best to start this job enthusiastically</t>
+          <t>I will be happy and fulfilled doing that job</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -5281,7 +4713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I realise how old I am and reflect on what I have achieved in the past years</t>
+          <t>feel blessed and glad at how my life has turned out</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -5295,7 +4727,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I found many sentimental items and began looking at them and sorting them for hours</t>
+          <t>found cute photos of my past</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -5309,7 +4741,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>I feel very annoyed and frustrated because I am already anxious about the results</t>
+          <t>extremely nervous</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -5323,7 +4755,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>My partner shares bad news</t>
+          <t>they share something that they are unsatisfied with in the relationship</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -5337,7 +4769,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>I saw a creepy guy waiting outside the car and I am anxious</t>
+          <t>something behind trying to attack you</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -5351,7 +4783,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I start to panic and think that there is something wrong with the car</t>
+          <t>the car breaks down</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -5365,7 +4797,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>the last presentation was not very good but I motivated myself by telling myself that I can do better this time</t>
+          <t>recall about how badly the last presentation went, determined to be better</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -5379,7 +4811,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>I feel extremely anxious because I think my quality of work was not very good for the past few months</t>
+          <t>probably unhappy with your work</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -5393,7 +4825,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>i was afraid that I was doing something wrong and they were judging me</t>
+          <t>feel very small, thinks that they are judging you</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -5407,7 +4839,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>He had a stern expression but I could only pretend that I didn't see it and continue</t>
+          <t>he has a face of disapproval, questions your understanding</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -5421,7 +4853,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>I imagined forgetting what I wanted to say halfway, or tripping over my words, or not knowing how to answer the questions posed, and this feels really unpleasant because I know that I could have done better</t>
+          <t>i am doing a bad job and not on point</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -5435,7 +4867,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>I realise that actually I am quite suitable for the job, and this makes me feel relieved and happy about myself, and that I have a chance to get the job</t>
+          <t>there are way more better options than me, it will not be me</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -5449,7 +4881,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>She would be pleasantly surprised because she got what she was looking forward to, so I would feel proud for being able to pick out what she wanted</t>
+          <t>disappointed, i did not get what she wants</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -5463,7 +4895,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I am looking forward to meeting them after all these years and I am hopeful that we can still have the same dynamic as we did last time, and I am also excited to hear about her life updates as well as share about my own updates</t>
+          <t>everyone is growing and moving ahead, but not me</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -5477,7 +4909,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>I would run through all the different scenarios in my head and play them all out one by one as I wait, but even though im quite nervous, I still feel excited to meet the person and I hope we can get along</t>
+          <t>they will not like me, they may not even bother showing up</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -5491,7 +4923,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I envision the job being challenging and fun and that I would enjoy the culture and environment a lot, so I feel excited and hopeful and I cannot wait to start at my new role</t>
+          <t>i am unlikely to get or maintain the job</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -5505,7 +4937,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I feel extremely grateful for everything that I have experienced so far and that I have been able to make so many good friends and meet so many amazing people, and even though I also run through some of the mistakes and regrets in my life, the good times would still dominate and I find that I have so much in life to be grateful for</t>
+          <t>wasted all this time for nothing</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -5519,7 +4951,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I look back on fond memories and the nostalgia hits, and I start reminiscing the good old days, and this makes me feel a sense of gratitude and happiness</t>
+          <t>things are still bad, nothing changed</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -5533,7 +4965,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>I would be really anxious to know my results and the page freezing would add on to my stress, leading me to continue overthinking about my results as I do not know what to expect</t>
+          <t>something must be wrong, did I even get graded?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5547,7 +4979,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>I would immediately think that something bad has happened, specifically something that I may have done to make them feel negatively or that they have been feeling off recently etc; basically that something has happened between us and that there is a problem they want to talk about and resolve, and I would immediately feel like I am at fault</t>
+          <t>bad news</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5561,7 +4993,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I would see a squirrel or a dog or some sort of animal, but after that I would start to feel uneasy and worry about what other things may be in the carpark or if there is someone hiding somewhere</t>
+          <t>in danger</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5575,7 +5007,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>I would become worried and anxious because I don't know what the sign means so I would want to find somewhere where I can park and figure out what happened and how to fix it</t>
+          <t>where and how do i resolve this?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -5589,7 +5021,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>I would have mixed feelings because the previous presentation did not go as well as i would have hoped and i would be worried that i would mess up this presentation too, then I would start overthinking about how it might go</t>
+          <t>i am messing it up again</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -5603,7 +5035,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>I would think that the supervisor is unhappy with the quality of my work and that they are going to scold or criticise me, and thus I would not be looking forward to meeting them; I am also afraid that they may be too harsh or unreasonable and that I may not be able to control my emotions when receiving harsh feedback</t>
+          <t>i have been doing poorly</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -5617,7 +5049,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Suddenly having the spotlight on me would make me feel very nervous and awkward, but at the same time i would try and seize the opportunity to present a good first impression</t>
+          <t>bad rumours about me</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -5631,7 +5063,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I see that they are frowning or confused and then I feel anxious and nervous because I realise that my pitch was not as good as I thought</t>
+          <t>i overstepped and made someone look bad</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -5645,7 +5077,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Feeling confident about the exam with a bit of nervousness</t>
+          <t>not good outcome</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -5659,7 +5091,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Trying to be confident about it</t>
+          <t>my qualifications are insufficient</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -5673,7 +5105,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>She being impressed by it</t>
+          <t>she feel happy that she has a gift but she might not like the actual gift</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -5687,7 +5119,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>To start off where we left</t>
+          <t>ultimately they are still my friends</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -5701,7 +5133,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Slightly nervous</t>
+          <t>hope that we will talk again</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5715,7 +5147,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Excited</t>
+          <t>makes my day feel fulfilled</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5729,7 +5161,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Thinking about good memories</t>
+          <t>average life</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5743,7 +5175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Nostalgic</t>
+          <t>good times only last temporarily</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -5757,7 +5189,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nervous</t>
+          <t>very scared , worried that i failed</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5771,7 +5203,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Great to spend some meaningful time together</t>
+          <t>he gonna intitaite break up</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5785,7 +5217,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Suspicious</t>
+          <t>it can be a ghost</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5799,7 +5231,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Worried</t>
+          <t>not sure what light it is</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5813,7 +5245,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Feeling optimistic</t>
+          <t>stumbling in my last presentation</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5827,7 +5259,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Trying to be positive</t>
+          <t>neutral feeling but still a bit scared</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5841,7 +5273,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Slightly nervous but open</t>
+          <t>social anxiety</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5855,7 +5287,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Satisfied by it</t>
+          <t>happy with my answer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5869,7 +5301,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i did relatively well until the examiner chases me away</t>
+          <t>it would not go very well as i tend to be stressed during oral presentations and ramble</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5883,7 +5315,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i might be cooked, they know more than me</t>
+          <t>i might be able to get the job which is good</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5897,7 +5329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>happy about the present</t>
+          <t>she faked a smile so she actually did not like it and i feel bad</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5911,7 +5343,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>they reamin the same and our freindship remains the same</t>
+          <t>i am happy as i miss my friend and i want to get updates on their life</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5925,7 +5357,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>we hit off pretty well</t>
+          <t>i think it will not go well as i do not like talking to new people as it is stressful</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5939,7 +5371,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>eager to rise in the ladders</t>
+          <t>i like working and doing something i like</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5953,7 +5385,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>time past so far</t>
+          <t>i do not like birthdays as they are usually sad</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5967,7 +5399,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>wow, the good old times</t>
+          <t>i feel happy but i also miss those times as it is more like bitter sweet nostalgia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5981,7 +5413,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>anxously waiting for it to load</t>
+          <t>i might not have done very well and that is not good and i would be disappointed in myself</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5995,7 +5427,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>my partner has something to share</t>
+          <t>i think it is going to end and i will be sad</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -6009,7 +5441,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>i see nothing</t>
+          <t>i see a stay animal and it is very cute</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -6023,7 +5455,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>depends on what fault light comes up, stop safely if necssary</t>
+          <t>i think maybe something bad has happened on the express way but i am also curious to see what is happening</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6037,7 +5469,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Thinking how i can improve</t>
+          <t>i do not like presenting to people as it makes me nervous</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6051,7 +5483,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>they praise me</t>
+          <t>i think it may not be good and i need to do better</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6065,7 +5497,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>welcoming me</t>
+          <t>i do not like when the focus is on me so i would find it stressful and not introduce myself</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -6079,7 +5511,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>happy to see me</t>
+          <t>i think he might say it is good but it could be better which just means its not good but put nicely</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -6093,7 +5525,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>It might go poorly</t>
+          <t>dread at the possibility of not doing well</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6107,7 +5539,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>low chance of getting the job</t>
+          <t>knowing how incompetent i am</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6121,7 +5553,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>could be either happy or confused but most likely happy</t>
+          <t>she might not like what i have bought, and i had disappointed her instead of making her feel happy on her special day</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6135,7 +5567,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>excited to catch up with them</t>
+          <t>so much as i am excited i am quite fearful at not knowing how to interact with them if they had changed a lot</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6149,7 +5581,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>i imagined that there would be a lot of awkward silence during that date</t>
+          <t>i fear being stood up or the date being awkward</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6163,7 +5595,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>I will be happy and fulfilled doing that job</t>
+          <t>anticipation, excitement at the possibilities it could bring to me</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6177,7 +5609,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>feel blessed and glad at how my life has turned out</t>
+          <t>i feel disappointed in myself and that i should have done better</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6191,7 +5623,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>found cute photos of my past</t>
+          <t>nostalgia at past memories</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -6205,7 +5637,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>extremely nervous</t>
+          <t>anxiety filled, anticipation, why am i unable to get this done and over with</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6219,7 +5651,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>they share something that they are unsatisfied with in the relationship</t>
+          <t>i am scared what if they say something unpleasant on breaking up</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6233,7 +5665,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>something behind trying to attack you</t>
+          <t>a cat</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6247,7 +5679,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>the car breaks down</t>
+          <t>i would stop at the nearest available spot and attempt to figure out what went wrong, if i had damaged the car since i had just started learning how to drive</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6261,7 +5693,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>recall about how badly the last presentation went, determined to be better</t>
+          <t>i hate presentations</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6275,7 +5707,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>probably unhappy with your work</t>
+          <t>i might get sacked</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6289,7 +5721,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>feel very small, thinks that they are judging you</t>
+          <t>are they turning to look at me because of the way i am dressed, or had i done something wrong, made the wrong impression</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6303,7 +5735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>he has a face of disapproval, questions your understanding</t>
+          <t>he might be surprised at my presentation, as i had said something he had not thought of</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6317,7 +5749,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>i am doing a bad job and not on point</t>
+          <t>it is very stressful</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6331,7 +5763,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>there are way more better options than me, it will not be me</t>
+          <t>I think i will not get the job</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6345,7 +5777,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>disappointed, i did not get what she wants</t>
+          <t>she must be feeling happy!</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6359,7 +5791,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>everyone is growing and moving ahead, but not me</t>
+          <t>excited to see my friend!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6373,7 +5805,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>they will not like me, they may not even bother showing up</t>
+          <t>I am feeling hopeful</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6387,7 +5819,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>i am unlikely to get or maintain the job</t>
+          <t>i feel hopeful for a new beginning</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6401,7 +5833,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>wasted all this time for nothing</t>
+          <t>I am glad with life so far</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6415,7 +5847,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>things are still bad, nothing changed</t>
+          <t>nostalgic</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6429,7 +5861,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>something must be wrong, did I even get graded?</t>
+          <t>i am scared but also excited</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6443,7 +5875,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>bad news</t>
+          <t>i feel scared</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6457,7 +5889,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>in danger</t>
+          <t>i see my friend! i am excited</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6471,7 +5903,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>where and how do i resolve this?</t>
+          <t>i am fearful of what will happen next</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6485,7 +5917,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>i am messing it up again</t>
+          <t>feeling hopeful to improve</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6499,7 +5931,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>i have been doing poorly</t>
+          <t>i am scared of what will be said</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6513,7 +5945,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>bad rumours about me</t>
+          <t>clueless</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6527,7 +5959,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>i overstepped and made someone look bad</t>
+          <t>unsure of what his face means</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6541,7 +5973,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>not good outcome</t>
+          <t>I did not do well for the exam</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6555,7 +5987,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>my qualifications are insufficient</t>
+          <t>I would not get the job</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6569,7 +6001,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>she feel happy that she has a gift but she might not like the actual gift</t>
+          <t>She was appreciative, but not overly happy</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6583,7 +6015,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ultimately they are still my friends</t>
+          <t>We catch up and have a good time</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6597,7 +6029,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>hope that we will talk again</t>
+          <t>The conversation is awkward and unpleasant</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6611,7 +6043,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>makes my day feel fulfilled</t>
+          <t>The job is enjoyable</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6625,7 +6057,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>average life</t>
+          <t>I have not done much of note, but have also slowly improved from many years ago.</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6639,7 +6071,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>good times only last temporarily</t>
+          <t>I browse through some childhood photos.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6653,7 +6085,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>very scared , worried that i failed</t>
+          <t>I feel annoyed</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6667,7 +6099,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>he gonna intitaite break up</t>
+          <t>I am worried that they might say something negative.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6681,7 +6113,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>it can be a ghost</t>
+          <t>A cat</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6695,7 +6127,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>not sure what light it is</t>
+          <t>Something might be wrong with the car, and there is no place to pull over</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6709,7 +6141,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>stumbling in my last presentation</t>
+          <t>I fear that I might start stuttering</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6723,7 +6155,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>neutral feeling but still a bit scared</t>
+          <t>My supervisor thinks that the quality of my work is not good enough</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6737,7 +6169,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>social anxiety</t>
+          <t>I get nervous, but everyone turns away soon after</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6751,7 +6183,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>happy with my answer</t>
+          <t>My manager's face is neutral</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6765,7 +6197,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>it would not go very well as i tend to be stressed during oral presentations and ramble</t>
+          <t>I am especially calm and enjoying my presentation - I imagine I will do well</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6779,7 +6211,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>i might be able to get the job which is good</t>
+          <t>I underestimated myself and actually have a good chance of securing the job</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6793,7 +6225,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>she faked a smile so she actually did not like it and i feel bad</t>
+          <t>My partner's sister loves the gift and is very happy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6807,7 +6239,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>i am happy as i miss my friend and i want to get updates on their life</t>
+          <t>I imagine feeling a little nervous but excited to meet and catch up with my friend whom I haven't seen in a long time</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -6821,7 +6253,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>i think it will not go well as i do not like talking to new people as it is stressful</t>
+          <t>I am not sure whether it will go well or not as I have never been on a date, much less a blind date. However, I trust my best friend and myself, and that the date will hopefully go ok</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -6835,7 +6267,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>i like working and doing something i like</t>
+          <t>I think it will go well, however, I am scared of messing it up as it means so much to me</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -6849,7 +6281,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>i do not like birthdays as they are usually sad</t>
+          <t>I have grown up so well, being blessed with so many good things - people, opportunities, improvements in various aspects of my life</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -6863,7 +6295,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>i feel happy but i also miss those times as it is more like bitter sweet nostalgia</t>
+          <t>I enjoy looking back at my past and reminiscing about the good old days</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -6877,7 +6309,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>i might not have done very well and that is not good and i would be disappointed in myself</t>
+          <t>I have a feeling that I did well but I dare not confirm it until I see the results. I am extremely nervous</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -6891,7 +6323,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>i think it is going to end and i will be sad</t>
+          <t>I imagine I would have a very good relationship with my partner and that I will choose the right person for me, so this talk shouldn't be about a negative topic. However, that thought is still at the back of my mind.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -6905,7 +6337,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>i see a stay animal and it is very cute</t>
+          <t>A pervert/killer following/coming after me</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -6919,7 +6351,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>i think maybe something bad has happened on the express way but i am also curious to see what is happening</t>
+          <t>My boot wasn't closed properly, which isn't something too major but something I can't attend to immediately. However, I'm still worried something bad might happen e.g. I get stopped by the traffic police or things in my boot fly out while I'm driving.</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -6933,7 +6365,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>i do not like presenting to people as it makes me nervous</t>
+          <t>The previous presentation went ok, not extraordinary but still average. I think the next presentation will turn out a similar way.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -6947,7 +6379,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>i think it may not be good and i need to do better</t>
+          <t>My supervisor wants to praise me for the quality of my work and my work ethic</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -6961,7 +6393,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>i do not like when the focus is on me so i would find it stressful and not introduce myself</t>
+          <t>Everyone is judging me as they have never seen me before. I start to become very self-conscious and start doubting everything about myself, from my outfit choice to my credentials</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -6975,7 +6407,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>i think he might say it is good but it could be better which just means its not good but put nicely</t>
+          <t>My expression is giving me a nod of approval</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -6989,7 +6421,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>dread at the possibility of not doing well</t>
+          <t>i will fall</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7003,7 +6435,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>knowing how incompetent i am</t>
+          <t>i will get rejected</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7017,7 +6449,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>she might not like what i have bought, and i had disappointed her instead of making her feel happy on her special day</t>
+          <t>she loves it</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7031,7 +6463,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>so much as i am excited i am quite fearful at not knowing how to interact with them if they had changed a lot</t>
+          <t>they hate me</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7045,7 +6477,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>i fear being stood up or the date being awkward</t>
+          <t>it goes pretty well</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7059,7 +6491,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>anticipation, excitement at the possibilities it could bring to me</t>
+          <t>amazing pay, glass cabin, lovely colleagues</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7073,7 +6505,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>i feel disappointed in myself and that i should have done better</t>
+          <t>all the failures of my life come in front of my eyes and its terrible</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7087,7 +6519,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>nostalgia at past memories</t>
+          <t>the love letters given by my ex</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7101,7 +6533,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>anxiety filled, anticipation, why am i unable to get this done and over with</t>
+          <t>i get panicky but i get good grades</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7115,7 +6547,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>i am scared what if they say something unpleasant on breaking up</t>
+          <t>breaks up</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7129,7 +6561,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>a cat</t>
+          <t>a kidnapper</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7143,7 +6575,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>i would stop at the nearest available spot and attempt to figure out what went wrong, if i had damaged the car since i had just started learning how to drive</t>
+          <t>seatbelt isnt properly worn</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7157,7 +6589,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>i hate presentations</t>
+          <t>i was amazing</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -7171,7 +6603,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>i might get sacked</t>
+          <t>i have been underperforming</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -7185,7 +6617,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>are they turning to look at me because of the way i am dressed, or had i done something wrong, made the wrong impression</t>
+          <t>they call me pretty</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7199,7 +6631,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>he might be surprised at my presentation, as i had said something he had not thought of</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7213,7 +6645,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>it is very stressful</t>
+          <t>nerve wrecking</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7227,7 +6659,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>I think i will not get the job</t>
+          <t>low chances</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -7241,7 +6673,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>she must be feeling happy!</t>
+          <t>content</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -7255,7 +6687,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>excited to see my friend!</t>
+          <t>changed for the worse</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -7269,7 +6701,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>I am feeling hopeful</t>
+          <t>nerve wrecking</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -7283,7 +6715,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>i feel hopeful for a new beginning</t>
+          <t>happy in job</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -7297,7 +6729,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>I am glad with life so far</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -7311,7 +6743,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>nostalgic</t>
+          <t>good memories</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -7325,7 +6757,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>i am scared but also excited</t>
+          <t>nerve wrecking</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -7339,7 +6771,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>i feel scared</t>
+          <t>made a mistake</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -7353,7 +6785,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>i see my friend! i am excited</t>
+          <t>a man</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -7367,7 +6799,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>i am fearful of what will happen next</t>
+          <t>accident</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -7381,7 +6813,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>feeling hopeful to improve</t>
+          <t>did not go well</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -7395,7 +6827,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>i am scared of what will be said</t>
+          <t>not good</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -7409,7 +6841,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>clueless</t>
+          <t>judgemental</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -7423,7 +6855,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>unsure of what his face means</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -7437,7 +6869,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>i walk into the room nervously</t>
+          <t>feeling good that its over. intuition is not reliable. what may seem good could be bad, vice versa</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -7451,7 +6883,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>i am nervous as i speak to them and i feel like i might not be good enough</t>
+          <t>(i am) so not qualified for the job</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -7465,7 +6897,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>she was very excited to open and she was smiling</t>
+          <t>birthday person probably happy on the surface, have to when receiving gifts. unsure if its real happy since i am buying a gift for someone i'm not close to (or could be)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -7479,7 +6911,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>im exicted to meet her</t>
+          <t>cool. they looked / seemed diff</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -7493,7 +6925,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>i am excited</t>
+          <t>nerves, but probably be ok</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -7507,7 +6939,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>i am excited</t>
+          <t>excited but reality probably less so</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7521,7 +6953,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>i am excited</t>
+          <t>:&lt;</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -7535,7 +6967,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>i am excited</t>
+          <t>pleasant past memories then comparison to bleak reality</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -7549,7 +6981,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>i am excited</t>
+          <t>its a sign. no its just internet / sever issues</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -7563,7 +6995,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>i am afraid</t>
+          <t>its over. / partner just needs someone to talk to (about stress / work / issues)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7577,7 +7009,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>a zombie. no its just bird.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -7591,7 +7023,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>time to bring the car in for maintenance</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -7605,7 +7037,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>it be ok</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -7619,7 +7051,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>gotta improve</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -7633,7 +7065,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>nervous. too many people's attention at once</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -7647,7 +7079,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>i am nervous</t>
+          <t>Someone asks a question. manager proud of me. no. i'll be too nervous to notice</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -7661,7 +7093,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>I did not do well for the exam</t>
+          <t>I will struggle to speak.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -7675,7 +7107,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>I would not get the job</t>
+          <t>People do not speak highly of me.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -7689,7 +7121,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>She was appreciative, but not overly happy</t>
+          <t>She did not like the gift.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7703,7 +7135,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>We catch up and have a good time</t>
+          <t>They are happy to see me.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7717,7 +7149,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>The conversation is awkward and unpleasant</t>
+          <t>My date and I are not able to carry out a conversation.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -7731,7 +7163,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>The job is enjoyable</t>
+          <t>I enjoy my new job.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -7745,7 +7177,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>I have not done much of note, but have also slowly improved from many years ago.</t>
+          <t>Nothing happens on my birthday.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -7759,7 +7191,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>I browse through some childhood photos.</t>
+          <t>I do not recall the memories in the photo.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -7773,7 +7205,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>I feel annoyed</t>
+          <t>I did well for the examination.</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -7787,7 +7219,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>I am worried that they might say something negative.</t>
+          <t>We get into a big argument.</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -7801,7 +7233,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A cat</t>
+          <t>I see a cat.</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -7815,7 +7247,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Something might be wrong with the car, and there is no place to pull over</t>
+          <t>The light goes away a little later and nothing happens.</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -7829,7 +7261,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>I fear that I might start stuttering</t>
+          <t>My last presentation went well, so I think the next one will too.</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -7843,7 +7275,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>My supervisor thinks that the quality of my work is not good enough</t>
+          <t>They point out areas of improvement.</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -7857,7 +7289,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>I get nervous, but everyone turns away soon after</t>
+          <t>I try to introduce myself, and no one responds nicely.</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -7871,7 +7303,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>My manager's face is neutral</t>
+          <t>He does not show any strong expression on his face. I take it that my idea was not that impactful.</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -7885,7 +7317,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>I am especially calm and enjoying my presentation - I imagine I will do well</t>
+          <t>nervous but i think i can survive the exam</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -7899,7 +7331,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>I underestimated myself and actually have a good chance of securing the job</t>
+          <t>ill be too scarwed to apply as i am underqualified</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -7913,7 +7345,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>My partner's sister loves the gift and is very happy</t>
+          <t>the sister liked the gift i picked out</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -7927,7 +7359,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>I imagine feeling a little nervous but excited to meet and catch up with my friend whom I haven't seen in a long time</t>
+          <t>it will be nice to catch up</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -7941,7 +7373,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>I am not sure whether it will go well or not as I have never been on a date, much less a blind date. However, I trust my best friend and myself, and that the date will hopefully go ok</t>
+          <t>the date is ugly and unpleasant</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -7955,7 +7387,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>I think it will go well, however, I am scared of messing it up as it means so much to me</t>
+          <t>excited to start</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -7969,7 +7401,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>I have grown up so well, being blessed with so many good things - people, opportunities, improvements in various aspects of my life</t>
+          <t>sentimental but I’m growing up too fast</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -7983,7 +7415,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>I enjoy looking back at my past and reminiscing about the good old days</t>
+          <t>nostalgic</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -7997,7 +7429,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>I have a feeling that I did well but I dare not confirm it until I see the results. I am extremely nervous</t>
+          <t>super nervous what if i failed</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8011,7 +7443,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>I imagine I would have a very good relationship with my partner and that I will choose the right person for me, so this talk shouldn't be about a negative topic. However, that thought is still at the back of my mind.</t>
+          <t>scared that it is bad news</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -8025,7 +7457,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A pervert/killer following/coming after me</t>
+          <t>so scary what if there is a creepy man</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -8039,7 +7471,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>My boot wasn't closed properly, which isn't something too major but something I can't attend to immediately. However, I'm still worried something bad might happen e.g. I get stopped by the traffic police or things in my boot fly out while I'm driving.</t>
+          <t>nervous</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -8053,7 +7485,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>The previous presentation went ok, not extraordinary but still average. I think the next presentation will turn out a similar way.</t>
+          <t>slightly confident but still nervous</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -8067,7 +7499,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>My supervisor wants to praise me for the quality of my work and my work ethic</t>
+          <t>worried as if he has something to say, it is likely not up to expectations</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -8081,7 +7513,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Everyone is judging me as they have never seen me before. I start to become very self-conscious and start doubting everything about myself, from my outfit choice to my credentials</t>
+          <t>they were probably talking badly of me</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -8095,7 +7527,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>My expression is giving me a nod of approval</t>
+          <t>his expression is serious and its probably not good</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -8109,7 +7541,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>i will fall</t>
+          <t>just very sterile and boring</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -8123,7 +7555,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>i will get rejected</t>
+          <t>sad that I won't get the job</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -8137,7 +7569,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>she loves it</t>
+          <t>sister was happy</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -8151,7 +7583,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>they hate me</t>
+          <t>excited but nervous</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -8165,7 +7597,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>it goes pretty well</t>
+          <t>kind of anxiously waiting</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -8179,7 +7611,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>amazing pay, glass cabin, lovely colleagues</t>
+          <t>feeling happy and motivated</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -8193,7 +7625,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>all the failures of my life come in front of my eyes and its terrible</t>
+          <t>life has had good and bad moments but I've come so far</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -8207,7 +7639,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>the love letters given by my ex</t>
+          <t>nostalgic and slightly sad</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -8221,7 +7653,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>i get panicky but i get good grades</t>
+          <t>panicky</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -8235,7 +7667,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>breaks up</t>
+          <t>taken aback</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -8249,7 +7681,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>a kidnapper</t>
+          <t>scared and threatened; there might be someone following me</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -8263,7 +7695,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>seatbelt isnt properly worn</t>
+          <t>scared and panicky, if there's an issue with my car on the expressway, I'm on big trouble so I need to exit as soon as possible</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -8277,7 +7709,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>i was amazing</t>
+          <t>a bit nervous as my last presentation wasn't the best</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -8291,7 +7723,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>i have been underperforming</t>
+          <t>the supervisor was both critical &amp; appreciative; balanced response</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -8305,7 +7737,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>they call me pretty</t>
+          <t>I look good LOL &amp; I feel professional</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -8319,7 +7751,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>impressed</t>
+          <t>interested expression on his face</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -8333,7 +7765,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>nerve wrecking</t>
+          <t>i am nervous but i think i will do okay</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -8347,7 +7779,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>low chances</t>
+          <t>i dont have the qualfications to do the job</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -8361,7 +7793,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>she does not like the gift</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -8375,7 +7807,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>changed for the worse</t>
+          <t>the catch up is good</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -8389,7 +7821,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>nerve wrecking</t>
+          <t>it goes moderately okay</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -8403,7 +7835,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>happy in job</t>
+          <t>excited for the future ahead</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -8417,7 +7849,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>i think i have had a okay life so far</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -8431,7 +7863,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>good memories</t>
+          <t>i think about when times were much simpler</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -8445,7 +7877,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nerve wrecking</t>
+          <t>i just wait for the results to come out</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -8459,7 +7891,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>made a mistake</t>
+          <t>a little bit anxious over what they might have to say</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -8473,7 +7905,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>a man</t>
+          <t>i become more cautious over what it might be</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -8487,7 +7919,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>accident</t>
+          <t>i want to go get the car checked out as soon as possible</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -8501,7 +7933,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>did not go well</t>
+          <t>a little nervous but i think i will do fine</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -8515,7 +7947,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>not good</t>
+          <t>thye have something to criticise me for</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -8529,7 +7961,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>judgemental</t>
+          <t>they are making a judgment of who i am</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -8543,7 +7975,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>they look impressed with my answer</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -8557,7 +7989,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>feeling good that its over. intuition is not reliable. what may seem good could be bad, vice versa</t>
+          <t>if i can tell how they feel then i assume it means it's going well</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -8571,7 +8003,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>(i am) so not qualified for the job</t>
+          <t>if i'm under qualified then i'm probably not optimistic</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -8585,7 +8017,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>birthday person probably happy on the surface, have to when receiving gifts. unsure if its real happy since i am buying a gift for someone i'm not close to (or could be)</t>
+          <t>i am anxious that she doesn't like it. everyone will always have to react positively so i cannot truly trust her reaction.</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -8599,7 +8031,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>cool. they looked / seemed diff</t>
+          <t>i'm anxious but excited to catch up</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -8613,7 +8045,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>nerves, but probably be ok</t>
+          <t>very anxious and conscious of myself, my actions and my looks, scared of who will show up, how they will perceive me in this moment</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -8627,7 +8059,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>excited but reality probably less so</t>
+          <t>i would imagine the best scenario and how it will change my life for the better since it's a job i really want</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -8641,7 +8073,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>:&lt;</t>
+          <t>i'm always anxious near my birthday because it's a day where people can forget about you</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -8655,7 +8087,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>pleasant past memories then comparison to bleak reality</t>
+          <t>i would be happy and love remembering nostalgic items</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -8669,7 +8101,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>its a sign. no its just internet / sever issues</t>
+          <t>very anxious and nervous for what is on the other side</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -8683,7 +8115,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>its over. / partner just needs someone to talk to (about stress / work / issues)</t>
+          <t>something is wrong and i'm anxious about what they are about to say. but i also know that we can probably work it out if i didn't do anything wrong</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -8697,7 +8129,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>a zombie. no its just bird.</t>
+          <t>someone wanting to hurt me or a ghost so i would be afraid, scared to look</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -8711,7 +8143,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>time to bring the car in for maintenance</t>
+          <t>it might be something wrong with the car, something that needs fixing and it might be dangerous to continue driving. but normally when this happens i continue driving anyways in hopes that its nothing much</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -8725,7 +8157,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>it be ok</t>
+          <t>my presentations are usually okay so i think i would think about how it used to go well to calm myself down</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -8739,7 +8171,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>gotta improve</t>
+          <t>depends on how i personally feel i have been doing. to prepare myself and set myself up for disappointment i might tell myself it's something bad. so if it's negative feedback then i'm ready and if it's positive ill be pleasantly surprised</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -8753,7 +8185,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>nervous. too many people's attention at once</t>
+          <t>i would panic and not know what to say, i would be scared i'm intruding on a group of people who already know each other. i don't think i would approach a group in general</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -8767,7 +8199,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Someone asks a question. manager proud of me. no. i'll be too nervous to notice</t>
+          <t>probably a look of disapproval</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -8781,7 +8213,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>I will struggle to speak.</t>
+          <t>I passed my exam</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -8795,7 +8227,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>People do not speak highly of me.</t>
+          <t>I probably am underqualified but I will still try</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -8809,7 +8241,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>She did not like the gift.</t>
+          <t>she enjoys the present</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -8823,7 +8255,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>They are happy to see me.</t>
+          <t>good meeting</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -8837,7 +8269,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>My date and I are not able to carry out a conversation.</t>
+          <t>awkward blind date, dont know what to say or expect</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -8851,7 +8283,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>I enjoy my new job.</t>
+          <t>exciting!</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -8865,7 +8297,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Nothing happens on my birthday.</t>
+          <t>happy with my life</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -8879,7 +8311,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>I do not recall the memories in the photo.</t>
+          <t>thinking about the past which is nice</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -8893,7 +8325,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>I did well for the examination.</t>
+          <t>nervous about the test results</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -8907,7 +8339,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>We get into a big argument.</t>
+          <t>uh oh, what's wrong</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -8921,7 +8353,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>I see a cat.</t>
+          <t>see someone suspicious and dangerous and I am scared</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -8935,7 +8367,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>The light goes away a little later and nothing happens.</t>
+          <t>something bad gna happen</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -8949,7 +8381,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>My last presentation went well, so I think the next one will too.</t>
+          <t>the presentation went well</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -8963,7 +8395,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>They point out areas of improvement.</t>
+          <t>normal check in, probably nothing too important</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -8977,7 +8409,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>I try to introduce myself, and no one responds nicely.</t>
+          <t>introduces myself and continues socialising with everyone</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -8991,7 +8423,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>He does not show any strong expression on his face. I take it that my idea was not that impactful.</t>
+          <t>approving</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -9005,7 +8437,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>nervous but i think i can survive the exam</t>
+          <t>I crushed it</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -9019,7 +8451,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>ill be too scarwed to apply as i am underqualified</t>
+          <t>I might not even get a shot at the interview</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -9033,7 +8465,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>the sister liked the gift i picked out</t>
+          <t>She would smile and say thank you</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -9047,7 +8479,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>it will be nice to catch up</t>
+          <t>We would catch up about the good old times and talk about how much better our lives are now</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -9061,7 +8493,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>the date is ugly and unpleasant</t>
+          <t>We would at least be able to have a pleasant meal</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -9075,7 +8507,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>excited to start</t>
+          <t>Job scope would align with my interests</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -9089,7 +8521,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>sentimental but I‚Äôm growing up too fast</t>
+          <t>I am not where I want to be yet</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -9103,7 +8535,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>nostalgic</t>
+          <t>I would find some pictures of my friends in the past which would allow me to recall happy memories</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -9117,7 +8549,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>super nervous what if i failed</t>
+          <t>I would be anxious</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -9131,7 +8563,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>scared that it is bad news</t>
+          <t>She wants to talk about something unpleasant when I'm tired</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -9145,7 +8577,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>so scary what if there is a creepy man</t>
+          <t>a stranger minding his business</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -9159,7 +8591,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>nervous</t>
+          <t>I would be stressed</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -9173,7 +8605,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>slightly confident but still nervous</t>
+          <t>I am confident I can give a good presentation</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -9187,7 +8619,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>worried as if he has something to say, it is likely not up to expectations</t>
+          <t>He would praise me</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -9201,7 +8633,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>they were probably talking badly of me</t>
+          <t>It would be an awkward introduction</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -9215,7 +8647,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>his expression is serious and its probably not good</t>
+          <t>I would answer the question to the best of my ability</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -9229,7 +8661,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>just very sterile and boring</t>
+          <t>i will do well in the exam</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -9243,7 +8675,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>sad that I won't get the job</t>
+          <t>i might not get the job but they might offer me another position</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -9257,7 +8689,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>sister was happy</t>
+          <t>she likes her gift.</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -9271,7 +8703,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>excited but nervous</t>
+          <t>i enjoy spending time with my friends</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -9285,7 +8717,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>kind of anxiously waiting</t>
+          <t>the date goes great</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -9299,7 +8731,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>feeling happy and motivated</t>
+          <t>i will enjoy the new job</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -9313,7 +8745,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>life has had good and bad moments but I've come so far</t>
+          <t>i love my life</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -9327,7 +8759,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>nostalgic and slightly sad</t>
+          <t>i browse through the items and feel nostalgic</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -9341,7 +8773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>panicky</t>
+          <t>i got top 10% thats why it froze</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -9355,7 +8787,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>taken aback</t>
+          <t>bro wants to propose</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -9369,7 +8801,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>scared and threatened; there might be someone following me</t>
+          <t>my friend trying to surprise me</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -9383,7 +8815,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>scared and panicky, if there's an issue with my car on the expressway, I'm on big trouble so I need to exit as soon as possible</t>
+          <t>its from a car that broke down</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -9397,7 +8829,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>a bit nervous as my last presentation wasn't the best</t>
+          <t>feel positive about my upcoming presentation</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -9411,7 +8843,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>the supervisor was both critical &amp; appreciative; balanced response</t>
+          <t>he likes how hardworking i am</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -9425,7 +8857,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>I look good LOL &amp; I feel professional</t>
+          <t>my makeup very good so they look</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -9439,7 +8871,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>interested expression on his face</t>
+          <t>he likes my pitch</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -9453,7 +8885,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>i imagined stumbling on my words during the exam</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -9467,7 +8899,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>dasd</t>
+          <t>i imagine the HR telling me that i am unfit for the job</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -9481,7 +8913,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>i imagined that i bought something the sister did not appreciate</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -9495,7 +8927,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>i imagined my friend having a good conversation with me about our lives</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -9509,7 +8941,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>i imagined the date to go badly</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -9523,7 +8955,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>i imagined a good first day at the job</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -9537,7 +8969,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>i had bad memories of my life</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -9551,7 +8983,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>adas</t>
+          <t>i began to reminisce my childhood memories</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -9565,7 +8997,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>i am hopeful to get good results</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -9579,7 +9011,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>i imagine that i had done something wrong</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -9593,7 +9025,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ada</t>
+          <t>i imagined a serial killer</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -9607,7 +9039,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>i imagined something was wrong with my vehicle</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -9621,7 +9053,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>i imagined myself stumbling during my last presentation</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -9635,7 +9067,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>i imagined that he had some minor issues to talk about</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -9649,7 +9081,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>i imagined people were bored of what i had to say</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -9663,7 +9095,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>i imagine my manager not being impressed</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -9677,7 +9109,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>i fumble</t>
+          <t>knowing what to expect reduces anxiety</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -9691,7 +9123,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>i dont get the job</t>
+          <t>imposter syndrome</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -9705,7 +9137,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>she acts like she likes it</t>
+          <t>something that she likes but not what she wants</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -9719,7 +9151,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>she has forgotten me</t>
+          <t>nostalgic yet afraid of how the relationship would have changed</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -9733,7 +9165,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>decent but the date was boring</t>
+          <t>waste of time</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -9747,7 +9179,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>great pay</t>
+          <t>challenges but i would be able to overcome them</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -9761,7 +9193,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>not that grezt</t>
+          <t>continuous improvement year after year</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -9775,7 +9207,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>i look happy</t>
+          <t>nostalgic</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -9789,7 +9221,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>i panic bad</t>
+          <t>its a sign that something bad is going to show</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -9803,7 +9235,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>theyre going to leave</t>
+          <t>did i do something wrong</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -9817,7 +9249,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>its a kidnapper</t>
+          <t>on high alert for an attack</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -9831,7 +9263,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>i was speeding</t>
+          <t>not sure what to do in that situation, leading to high anxiety</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -9845,7 +9277,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>i fumbled so badly</t>
+          <t>previous one did not go as well as i expected, would it repeat again</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -9859,7 +9291,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>theyre giving me a raise</t>
+          <t>good and bad</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -9873,7 +9305,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>theyre curious</t>
+          <t>well dressed and presentable</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -9887,7 +9319,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>he is happy with my performance</t>
+          <t>impressed that i was able to answer</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -9901,7 +9333,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>did not do very well</t>
+          <t>I imagine being nervous standing but overall prepared in knowing that I am doing the best I can with the resources I was given.</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -9915,7 +9347,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>will not do well in the interview</t>
+          <t>I thought that there was a high possibility of getting rejected.</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -9929,7 +9361,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>sister did not like the present</t>
+          <t>I think the sister is trying her best to hide the dissatisfaction on her face while still keeping a polite smile.</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -9943,7 +9375,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>nice to see how much my friend has grown over the years</t>
+          <t>I realize that our friendship was always as strong as it was all those years ago.</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -9957,7 +9389,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>hopeful it is something positive</t>
+          <t>I feel like nothing extremely bad will happen, but nothing extremely good will come out of it either. I might complete the date feeling no particular interest.</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -9971,7 +9403,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>the excitement and nerves of starting a new job, and one that i really worked hard for / aiming for</t>
+          <t>I imagine a team of people that I enjoy working with and we are all close enough to hang out outside of work as well.</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -9985,7 +9417,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>one year older but feel that im not as accomplished unlike my peers</t>
+          <t>I think about how I will most likely be with my friends on my birthday and how much they have done for me. But I will mostly feel sad about all the years I missed out on due to bad experiences.</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -9999,7 +9431,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>reminisce those times in the photos</t>
+          <t>I will start to feel sad/melancholic knowing how naive and innocent I was and how that innocence was ruined.</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -10013,7 +9445,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>on edge and frustrated of why this breakdown is happening at this point</t>
+          <t>Imagined getting accepted. Glitches are common before getting a high rarity character in gacha games so I apply that logic to this scenario too.</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -10027,7 +9459,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>the tone and way it was phrased sounds negative</t>
+          <t>I am scared that I did something wrong and I am prepared to apologize and ask how I can do better.</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -10041,7 +9473,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>might be stalked at</t>
+          <t>See either a wild animal or someone who is about to kidnap and murder me.</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -10055,7 +9487,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>praying that the car does not breakdown in the middle of the highway</t>
+          <t>I imagine pulling over safely and calling the authorities to have them come over to help and clarify what is wrong. Nothing bad will immediately happen to me or my car.</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -10069,7 +9501,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>the last presentation could be good or bad, and maybe im more prepared for this</t>
+          <t>I usually am confident about my presentation skills so I think I will perform at a comfortable level. I probably made minor mistakes, but I don't think it will have a big effect on my overall presentation.</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -10083,7 +9515,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>likely positive feedback</t>
+          <t>I imagine that my supervisor says nice things and that I can get a raise or move to a higher position.</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -10097,7 +9529,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>I imagine myself being able to converse with the group but inside feeling incredibly anxious and cautious of how I present myself because I do not want to ruin networking opportunities.</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -10111,7 +9543,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>praying that i did not answer / say something wrong</t>
+          <t>I expect a subtle nod or no expression at all. I don't imagine an obvious negative expression.</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -10125,7 +9557,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>i am nervous but i think i will do okay</t>
+          <t>chinese oral examination, felt anxious</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -10139,7 +9571,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>i dont have the qualfications to do the job</t>
+          <t>the job scope is out of my expertise and now i feel awkward that i am there at the interview</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -10153,7 +9585,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>she does not like the gift</t>
+          <t>she looked happy and gestured that the present was what she wanted</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -10167,7 +9599,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>the catch up is good</t>
+          <t>my friend looks happy and her partner is with her</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -10181,7 +9613,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>it goes moderately okay</t>
+          <t>anxious, keep thinking he might be a catfish and worry about that i cannot speak properly</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -10195,7 +9627,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>excited for the future ahead</t>
+          <t>helping people and the patients saying thank you and they get to go home</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -10209,7 +9641,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>i think i have had a okay life so far</t>
+          <t>i feel old and lagging behind my peers, feel suffocated</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -10223,7 +9655,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>i think about when times were much simpler</t>
+          <t>saw my ex and i, wondered that he has a new girl friend while im here still single and miserable</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -10237,7 +9669,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>i just wait for the results to come out</t>
+          <t>heart drops and get extremely nervous, tried to log in again</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -10251,7 +9683,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>a little bit anxious over what they might have to say</t>
+          <t>bad feeling in my stomach, feel like sweating and nervous. thinking of breaking up.</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -10265,7 +9697,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>i become more cautious over what it might be</t>
+          <t>a guy following me and my heart is racing, i walk faster</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -10279,7 +9711,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>i want to go get the car checked out as soon as possible</t>
+          <t>i panic and pull over. call my dad to ask what is wrong with my car</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -10293,7 +9725,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>a little nervous but i think i will do fine</t>
+          <t>quite okay with presentations but i think about what the teacher can ask for QNA</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -10307,7 +9739,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>thye have something to criticise me for</t>
+          <t>critised my work but said that it is not bad for a newbie.</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -10321,7 +9753,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>they are making a judgment of who i am</t>
+          <t>nervous, sweating, uncomfortable. not sure what to say</t>
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
@@ -10335,7 +9767,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>they look impressed with my answer</t>
+          <t>nodding his head in agreement.</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
@@ -10349,7 +9781,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>if i can tell how they feel then i assume it means it's going well</t>
+          <t>Nothing special</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -10363,7 +9795,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>if i'm under qualified then i'm probably not optimistic</t>
+          <t>Being rejected</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -10377,7 +9809,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>i am anxious that she doesn't like it. everyone will always have to react positively so i cannot truly trust her reaction.</t>
+          <t>She liked it very much</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -10391,7 +9823,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>i'm anxious but excited to catch up</t>
+          <t>Catching up with her</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -10405,7 +9837,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>very anxious and conscious of myself, my actions and my looks, scared of who will show up, how they will perceive me in this moment</t>
+          <t>It was okay</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -10419,7 +9851,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>i would imagine the best scenario and how it will change my life for the better since it's a job i really want</t>
+          <t>Im doing what i like</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -10433,7 +9865,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>i'm always anxious near my birthday because it's a day where people can forget about you</t>
+          <t>My age is getting serious</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -10447,7 +9879,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>i would be happy and love remembering nostalgic items</t>
+          <t>Old pictures &amp; memories</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -10461,7 +9893,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>very anxious and nervous for what is on the other side</t>
+          <t>A little scared, did i forget to submit</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -10475,7 +9907,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>something is wrong and i'm anxious about what they are about to say. but i also know that we can probably work it out if i didn't do anything wrong</t>
+          <t>Something is up</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -10489,7 +9921,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>someone wanting to hurt me or a ghost so i would be afraid, scared to look</t>
+          <t>Something jump scares me</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -10503,7 +9935,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>it might be something wrong with the car, something that needs fixing and it might be dangerous to continue driving. but normally when this happens i continue driving anyways in hopes that its nothing much</t>
+          <t>What is a dashboard</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -10517,7 +9949,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>my presentations are usually okay so i think i would think about how it used to go well to calm myself down</t>
+          <t>Will I stutter</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -10531,7 +9963,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>depends on how i personally feel i have been doing. to prepare myself and set myself up for disappointment i might tell myself it's something bad. so if it's negative feedback then i'm ready and if it's positive ill be pleasantly surprised</t>
+          <t>I could be doing okay</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -10545,7 +9977,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>i would panic and not know what to say, i would be scared i'm intruding on a group of people who already know each other. i don't think i would approach a group in general</t>
+          <t>I will introduce myself</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -10559,7 +9991,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>probably a look of disapproval</t>
+          <t>He is nodding</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
@@ -10573,7 +10005,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>I passed my exam</t>
+          <t>Approving of the points I made</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -10587,7 +10019,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>I probably am underqualified but I will still try</t>
+          <t>chances are not that bad because it actually fits certain parts of my skillset</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -10601,7 +10033,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>she enjoys the present</t>
+          <t>Lights up because I previously observed what she liked and got her exactly that</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -10615,7 +10047,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>good meeting</t>
+          <t>Not sure how to react, so probably an awkward hi bye</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -10629,7 +10061,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>awkward blind date, dont know what to say or expect</t>
+          <t>it should go somewhat well, but I am not very good at first impressions</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -10643,7 +10075,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>exciting!</t>
+          <t>I would think I got my dream job that I have been working so hard for</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -10657,7 +10089,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>happy with my life</t>
+          <t>I would feel like I never achieved enough compared to others</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -10671,7 +10103,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>thinking about the past which is nice</t>
+          <t>Finding nostalgia in the photos</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -10685,7 +10117,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>nervous about the test results</t>
+          <t>I mean its just a crash or freeze</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -10699,7 +10131,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>uh oh, what's wrong</t>
+          <t>this phrase NEVER leads to a good conversation</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -10713,7 +10145,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>see someone suspicious and dangerous and I am scared</t>
+          <t>A cat</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -10727,7 +10159,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>something bad gna happen</t>
+          <t>probably get really irritated and might stop the car just to confront</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -10741,7 +10173,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>the presentation went well</t>
+          <t>I always try to learn from my mistakes to never make them again</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -10755,7 +10187,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>normal check in, probably nothing too important</t>
+          <t>I gave it my all so bonus O.o</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -10769,7 +10201,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>introduces myself and continues socialising with everyone</t>
+          <t>please no I am way too introverted, probably shy away</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -10783,7 +10215,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>approving</t>
+          <t>raised eyebrows and an are u sure expression</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -10797,7 +10229,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>I crushed it</t>
+          <t>I will feel a bit stressful as I am not so confident with my oral ability</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
@@ -10811,7 +10243,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>I might not even get a shot at the interview</t>
+          <t>I could have met the requirements but I still need to think of whether the job was suitable to me</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
@@ -10825,7 +10257,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>She would smile and say thank you</t>
+          <t>I would be a bit worried about whether the sister would like the present or not.</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -10839,7 +10271,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>We would catch up about the good old times and talk about how much better our lives are now</t>
+          <t>I felt happy to see these old friends and expected to see how were them nowadays</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -10853,7 +10285,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>We would at least be able to have a pleasant meal</t>
+          <t>I felt nervous as I did not know whether a blind date would be able to help me find a suitable person</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -10867,7 +10299,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Job scope would align with my interests</t>
+          <t>I would be satisfying with my work</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -10881,7 +10313,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>I am not where I want to be yet</t>
+          <t>Probably celebrating my birthday with myself only</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -10895,7 +10327,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>I would find some pictures of my friends in the past which would allow me to recall happy memories</t>
+          <t>I would recall the past and those happiness that I had experienced</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -10909,7 +10341,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>I would be anxious</t>
+          <t>I would feel anxious and worried.</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -10923,7 +10355,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>She wants to talk about something unpleasant when I'm tired</t>
+          <t>This could be probably an important talk, so I would take it seriously</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -10937,7 +10369,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>a stranger minding his business</t>
+          <t>Maybe it was a stranger who just walked in the same direction, but I would become alert</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -10951,7 +10383,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>I would be stressed</t>
+          <t>Worried about the issue as it could be very dangerous</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -10965,7 +10397,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>I am confident I can give a good presentation</t>
+          <t>I would just prepare myself and pay my effort</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -10979,7 +10411,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>He would praise me</t>
+          <t>I felt a bit worried about my performance and thought where I could improve</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -10993,7 +10425,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>It would be an awkward introduction</t>
+          <t>I would become nervous when facing strangers</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -11007,7 +10439,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>I would answer the question to the best of my ability</t>
+          <t>I tried to find out whether the manager was satisfied with my answer through his/her facial expression</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -11021,7 +10453,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>i will do well in the exam</t>
+          <t>I feel that I did well and that what I'm, saying makes sense because the examiner was nodding along</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -11035,7 +10467,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>i might not get the job but they might offer me another position</t>
+          <t>I realise that I may be under qualified for a very competitive job</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
@@ -11049,7 +10481,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>she likes her gift.</t>
+          <t>It was exactly what she wanted and she is very happy receiving the gift</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
@@ -11063,7 +10495,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>i enjoy spending time with my friends</t>
+          <t>I feel a bit left out that I was not there to witness their change</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -11077,7 +10509,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>the date goes great</t>
+          <t>It would be a bit nervewracking but I would be anticipating that my friend chose the right guy for me</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -11091,7 +10523,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>i will enjoy the new job</t>
+          <t>I would imagine doing well at the job and making friends with my colleagues, as well as my job fulfilling every aspect of being my dream job</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -11105,7 +10537,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>i love my life</t>
+          <t>I would feel a sense of contentment that I have come so far in life</t>
         </is>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -11119,7 +10551,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>i browse through the items and feel nostalgic</t>
+          <t>I would feel nostalgic looking at the memories captured in the pictures and reminisce about my younger days</t>
         </is>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -11133,7 +10565,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>i got top 10% thats why it froze</t>
+          <t>I would feel anxious and tense about having to wait even longer to see my results</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -11147,7 +10579,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>bro wants to propose</t>
+          <t>I would feel scared of what they are about to say</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -11161,7 +10593,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>my friend trying to surprise me</t>
+          <t>I would feel scared that it was an attacker but it was a cat instead.</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -11175,7 +10607,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>its from a car that broke down</t>
+          <t>The light is to indicate that my fuel tank is almost empty. I would be grateful for the reminder and that I didn't get stranded on the expressway</t>
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -11189,7 +10621,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>feel positive about my upcoming presentation</t>
+          <t>I would focus on the good parts of the previous presentation to encourage myself</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -11203,7 +10635,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>he likes how hardworking i am</t>
+          <t>I would feel very anxious and my mind will focus on possible mistakes that I've made so far</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -11217,7 +10649,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>my makeup very good so they look</t>
+          <t>I would feel a bit nervous that everyone's attention is on me and the possibility of being rejected</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -11231,7 +10663,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>he likes my pitch</t>
+          <t>He has a neutral expression because he is considering the feasibility of my proposed idea</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -11245,7 +10677,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>i imagined stumbling on my words during the exam</t>
+          <t>worry about his/her impression of me</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -11259,7 +10691,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>i imagine the HR telling me that i am unfit for the job</t>
+          <t>felt like i was not qualified for the job and should find something more suitable</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -11273,7 +10705,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>i imagined that i bought something the sister did not appreciate</t>
+          <t>she likes it</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
@@ -11287,7 +10719,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>i imagined my friend having a good conversation with me about our lives</t>
+          <t>excited to meet them</t>
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
@@ -11301,7 +10733,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>i imagined the date to go badly</t>
+          <t>worry about uncertainty</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -11315,7 +10747,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>i imagined a good first day at the job</t>
+          <t>excited and looking forward</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -11329,7 +10761,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>i had bad memories of my life</t>
+          <t>not good but not bad either</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -11343,7 +10775,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>i began to reminisce my childhood memories</t>
+          <t>felt sad reminiscing memories with someone that is not here anymore</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -11357,7 +10789,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>i am hopeful to get good results</t>
+          <t>worried</t>
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -11371,7 +10803,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>i imagine that i had done something wrong</t>
+          <t>talked about something special that happened</t>
         </is>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -11385,7 +10817,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>i imagined a serial killer</t>
+          <t>a stranger</t>
         </is>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -11399,7 +10831,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>i imagined something was wrong with my vehicle</t>
+          <t>stop the car at a safe place by the road</t>
         </is>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -11413,7 +10845,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>i imagined myself stumbling during my last presentation</t>
+          <t>nervous</t>
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -11427,7 +10859,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>i imagined that he had some minor issues to talk about</t>
+          <t>was not bad but can be even better</t>
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -11441,7 +10873,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>i imagined people were bored of what i had to say</t>
+          <t>scared</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -11455,7 +10887,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>i imagine my manager not being impressed</t>
+          <t>smiling and feeling pleased</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -11469,7 +10901,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>knowing what to expect reduces anxiety</t>
+          <t>i have prepared well for the exam and was able to predict the questions</t>
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -11483,7 +10915,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>imposter syndrome</t>
+          <t>I am not qualified for the job</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -11497,7 +10929,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>something that she likes but not what she wants</t>
+          <t>she was disappointed as she did not like the gift</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -11511,7 +10943,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>nostalgic yet afraid of how the relationship would have changed</t>
+          <t>my friend might not recognise me or think that I've changed physically for the worst</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
@@ -11525,7 +10957,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>waste of time</t>
+          <t>i'm nervous yet excited about how the date and the guy will think about me</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
@@ -11539,7 +10971,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>challenges but i would be able to overcome them</t>
+          <t>I am nervous yet excited about the people i am going to meet and how the work will be like</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -11553,7 +10985,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>continuous improvement year after year</t>
+          <t>I become sad that i'm becoming older but did not accomplish anything</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -11567,7 +10999,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>nostalgic</t>
+          <t>I do not like looking at my past self as there are many bad memories</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -11581,7 +11013,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>its a sign that something bad is going to show</t>
+          <t>it is a bad premonition that my grades are poor</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -11595,7 +11027,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>did i do something wrong</t>
+          <t>my partner wants to confide something that is troubling him or want to resolve a conflict</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -11609,7 +11041,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>on high alert for an attack</t>
+          <t>its a passerby</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
@@ -11623,7 +11055,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>not sure what to do in that situation, leading to high anxiety</t>
+          <t>the car is about to spoil</t>
         </is>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -11637,7 +11069,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>previous one did not go as well as i expected, would it repeat again</t>
+          <t>I'll stop thinking about it</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
@@ -11651,7 +11083,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>good and bad</t>
+          <t>The supervisor must want to criticise me</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -11665,7 +11097,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>well dressed and presentable</t>
+          <t>nervous as they are judging me</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -11679,7 +11111,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>impressed that i was able to answer</t>
+          <t>the manager face is frowning and stern, he's not happy about my answer</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -11693,7 +11125,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>I imagine being nervous standing but overall prepared in knowing that I am doing the best I can with the resources I was given.</t>
+          <t>I feel that I have prepared enough and will do okay</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
@@ -11707,7 +11139,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>I thought that there was a high possibility of getting rejected.</t>
+          <t>I am not fitted for the job</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -11721,7 +11153,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>I think the sister is trying her best to hide the dissatisfaction on her face while still keeping a polite smile.</t>
+          <t>she does not realy like the present and I wasted my money</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -11735,7 +11167,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>I realize that our friendship was always as strong as it was all those years ago.</t>
+          <t>Excited to see how much she has changed, and hear about her life</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
@@ -11749,7 +11181,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>I feel like nothing extremely bad will happen, but nothing extremely good will come out of it either. I might complete the date feeling no particular interest.</t>
+          <t>a little excited and a little nervous</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
@@ -11763,7 +11195,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>I imagine a team of people that I enjoy working with and we are all close enough to hang out outside of work as well.</t>
+          <t>I will excel in this role</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
@@ -11777,7 +11209,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>I think about how I will most likely be with my friends on my birthday and how much they have done for me. But I will mostly feel sad about all the years I missed out on due to bad experiences.</t>
+          <t>Proud of what I have achieved and excited about what awaits in the future</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -11791,7 +11223,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>I will start to feel sad/melancholic knowing how naive and innocent I was and how that innocence was ruined.</t>
+          <t>Nostalgia and memories of happy times</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -11805,7 +11237,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Imagined getting accepted. Glitches are common before getting a high rarity character in gacha games so I apply that logic to this scenario too.</t>
+          <t>nervous</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -11819,7 +11251,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>I am scared that I did something wrong and I am prepared to apologize and ask how I can do better.</t>
+          <t>I don't know what might happen</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -11833,7 +11265,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>See either a wild animal or someone who is about to kidnap and murder me.</t>
+          <t>I am scared that it might be an attacker</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -11847,7 +11279,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>I imagine pulling over safely and calling the authorities to have them come over to help and clarify what is wrong. Nothing bad will immediately happen to me or my car.</t>
+          <t>Nervous about what is going to happen</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
@@ -11861,7 +11293,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>I usually am confident about my presentation skills so I think I will perform at a comfortable level. I probably made minor mistakes, but I don't think it will have a big effect on my overall presentation.</t>
+          <t>Afraid people might not be interested in listening</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -11875,7 +11307,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>I imagine that my supervisor says nice things and that I can get a raise or move to a higher position.</t>
+          <t>it could be bad or good</t>
         </is>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -11889,7 +11321,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>I imagine myself being able to converse with the group but inside feeling incredibly anxious and cautious of how I present myself because I do not want to ruin networking opportunities.</t>
+          <t>social anxiety</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
@@ -11903,7 +11335,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>I expect a subtle nod or no expression at all. I don't imagine an obvious negative expression.</t>
+          <t>I am scared manager might say unpleasant things</t>
         </is>
       </c>
       <c r="C545" t="inlineStr"/>
@@ -11917,7 +11349,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>chinese oral examination, felt anxious</t>
+          <t>I finished the examination with a few mistakes</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
@@ -11931,7 +11363,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>the job scope is out of my expertise and now i feel awkward that i am there at the interview</t>
+          <t>I may not have done very well for the interview</t>
         </is>
       </c>
       <c r="C547" t="inlineStr"/>
@@ -11945,7 +11377,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>she looked happy and gestured that the present was what she wanted</t>
+          <t>She may not like it that much but shows a smile respectfully</t>
         </is>
       </c>
       <c r="C548" t="inlineStr"/>
@@ -11959,7 +11391,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>my friend looks happy and her partner is with her</t>
+          <t>I feel happy seeing them in a better state</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -11973,7 +11405,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>anxious, keep thinking he might be a catfish and worry about that i cannot speak properly</t>
+          <t>I worry about how it will turn out</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -11987,7 +11419,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>helping people and the patients saying thank you and they get to go home</t>
+          <t>Initially I have fun, afterwards things start to get tough</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
@@ -12001,7 +11433,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>i feel old and lagging behind my peers, feel suffocated</t>
+          <t>I talk to myself positively and praise myself for pushing through the past years while learning from my mistakes</t>
         </is>
       </c>
       <c r="C552" t="inlineStr"/>
@@ -12015,7 +11447,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>saw my ex and i, wondered that he has a new girl friend while im here still single and miserable</t>
+          <t>Memories come to mind</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -12029,7 +11461,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>heart drops and get extremely nervous, tried to log in again</t>
+          <t>I will do well</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
@@ -12043,7 +11475,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>bad feeling in my stomach, feel like sweating and nervous. thinking of breaking up.</t>
+          <t>He wants to talk about something serious</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
@@ -12057,7 +11489,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>a guy following me and my heart is racing, i walk faster</t>
+          <t>A murderer/robber</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -12071,7 +11503,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>i panic and pull over. call my dad to ask what is wrong with my car</t>
+          <t>I may get into an accident</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -12085,7 +11517,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>quite okay with presentations but i think about what the teacher can ask for QNA</t>
+          <t>I will do better this time</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -12099,7 +11531,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>critised my work but said that it is not bad for a newbie.</t>
+          <t>I did well but there are still room for improvement</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -12113,7 +11545,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>nervous, sweating, uncomfortable. not sure what to say</t>
+          <t>I worry about what they think of me</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -12127,7 +11559,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>nodding his head in agreement.</t>
+          <t>I may not have answered it well</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -12141,7 +11573,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Nothing special</t>
+          <t>I feel confident in aceing this test</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -12155,7 +11587,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Being rejected</t>
+          <t>I probably realise I am as under-qualified as I thought I was</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -12169,7 +11601,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>She liked it very much</t>
+          <t>She is disappointed</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -12183,7 +11615,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Catching up with her</t>
+          <t>I'm glad to be reunited</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -12197,7 +11629,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>It was okay</t>
+          <t>I am very nervous and shy</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -12211,7 +11643,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Im doing what i like</t>
+          <t>I can make friends and find the work fulfilling</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -12225,7 +11657,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>My age is getting serious</t>
+          <t>I cannot believe I have reached this age, but it has been fun thus far</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -12239,7 +11671,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Old pictures &amp; memories</t>
+          <t>Nostalgia always makes things seem more positive</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -12253,7 +11685,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>A little scared, did i forget to submit</t>
+          <t>The anticipation puts me on edge</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -12267,7 +11699,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Something is up</t>
+          <t>Fear would probably immobilise me</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -12281,7 +11713,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Something jump scares me</t>
+          <t>Someone that may be dangerous is there</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -12295,7 +11727,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>What is a dashboard</t>
+          <t>I dont know enough about these warning lights so I will remain on edge until I have reached</t>
         </is>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -12309,7 +11741,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Will I stutter</t>
+          <t>My previous presentations have gone well but I am still worried</t>
         </is>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -12323,7 +11755,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>I could be doing okay</t>
+          <t>It must not be a good thing</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -12337,7 +11769,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>I will introduce myself</t>
+          <t>This is very nerve wracking</t>
         </is>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -12351,7 +11783,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>He is nodding</t>
+          <t>He must be impressed</t>
         </is>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -12365,7 +11797,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Approving of the points I made</t>
+          <t>judgmental looks, tense environment</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -12379,7 +11811,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>chances are not that bad because it actually fits certain parts of my skillset</t>
+          <t>people have done a lot in their lives and i feel like i haven't done enough</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -12393,7 +11825,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Lights up because I previously observed what she liked and got her exactly that</t>
+          <t>i gave them their favourite thing as i love giving gifts and they are extremely happy</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -12407,7 +11839,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Not sure how to react, so probably an awkward hi bye</t>
+          <t>a bit nervous but mostly excites to meet again</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -12421,7 +11853,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>it should go somewhat well, but I am not very good at first impressions</t>
+          <t>the environment is calm and i feel confident and happy.</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -12435,7 +11867,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>I would think I got my dream job that I have been working so hard for</t>
+          <t>I will enjoy working there and I will feel fulfilled and worthy</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -12449,7 +11881,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>I would feel like I never achieved enough compared to others</t>
+          <t>getting older without achieving much</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -12463,7 +11895,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Finding nostalgia in the photos</t>
+          <t>sad and nostalgic</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
@@ -12477,7 +11909,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>I mean its just a crash or freeze</t>
+          <t>I feel nervous and irritated that the page isn't loading</t>
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
@@ -12491,7 +11923,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>this phrase NEVER leads to a good conversation</t>
+          <t>uncomfortable talk about something negative</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -12505,7 +11937,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>A cat</t>
+          <t>a man. creepy dude and it is scary</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -12519,7 +11951,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>probably get really irritated and might stop the car just to confront</t>
+          <t>the outcome i imagined is my car running out of petrol in the middle of nowhere</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -12533,7 +11965,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>I always try to learn from my mistakes to never make them again</t>
+          <t>I believe the presentation would go well. If i rehearse it usually goes fine</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -12547,7 +11979,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>I gave it my all so bonus O.o</t>
+          <t>they called me to inform me about a few minor mistakes but generally I was doing well</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -12561,7 +11993,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>please no I am way too introverted, probably shy away</t>
+          <t>I feel uncomfortable but since I have to network I manage my awkwardness and confidently talk to other people</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -12575,7 +12007,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>raised eyebrows and an are u sure expression</t>
+          <t>the manager is curious and interested in my idea but has a few questions in their mind</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -12589,7 +12021,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>I will feel a bit stressful as I am not so confident with my oral ability</t>
+          <t>oral examination seems ok</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -12603,7 +12035,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>I could have met the requirements but I still need to think of whether the job was suitable to me</t>
+          <t>I do not have the requirements they are looking for</t>
         </is>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -12617,7 +12049,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>I would be a bit worried about whether the sister would like the present or not.</t>
+          <t>I did not get the person something they like.</t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -12631,7 +12063,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>I felt happy to see these old friends and expected to see how were them nowadays</t>
+          <t>Talking about what happened during the times we have not seen each other</t>
         </is>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -12645,7 +12077,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>I felt nervous as I did not know whether a blind date would be able to help me find a suitable person</t>
+          <t>Hopefully this person would like me and would not think that I am ugly or incompatible.</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -12659,7 +12091,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>I would be satisfying with my work</t>
+          <t>Good welfare, good colleagues</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -12673,7 +12105,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Probably celebrating my birthday with myself only</t>
+          <t>Life has not been the best and I have not done anything to make it better, a little upset.</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -12687,7 +12119,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>I would recall the past and those happiness that I had experienced</t>
+          <t>reminiscing about younger times when life was better</t>
         </is>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -12701,7 +12133,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>I would feel anxious and worried.</t>
+          <t>I could have done better.</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -12715,7 +12147,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>This could be probably an important talk, so I would take it seriously</t>
+          <t>Something I did/ did not do. Getting reprimanded or something bad is happening</t>
         </is>
       </c>
       <c r="C603" t="inlineStr"/>
@@ -12729,7 +12161,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Maybe it was a stranger who just walked in the same direction, but I would become alert</t>
+          <t>Scared and running</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -12743,7 +12175,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Worried about the issue as it could be very dangerous</t>
+          <t>Gotta find a gas station quickly</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -12757,7 +12189,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>I would just prepare myself and pay my effort</t>
+          <t>Please don't make mistakes</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -12771,7 +12203,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>I felt a bit worried about my performance and thought where I could improve</t>
+          <t>Good work but there is improvements to be done</t>
         </is>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -12785,7 +12217,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>I would become nervous when facing strangers</t>
+          <t>Did I say something wrong</t>
         </is>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -12799,7 +12231,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>I tried to find out whether the manager was satisfied with my answer through his/her facial expression</t>
+          <t>It was a bad idea</t>
         </is>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -12813,7 +12245,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>I feel that I did well and that what I'm, saying makes sense because the examiner was nodding along</t>
+          <t>i imagined doing badly at the oral exam and stumbling, based on past experiences</t>
         </is>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -12827,7 +12259,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>I realise that I may be under qualified for a very competitive job</t>
+          <t>i feel that i wont be able to get the job anymore becuse they expect more than what i can deliver</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -12841,7 +12273,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>It was exactly what she wanted and she is very happy receiving the gift</t>
+          <t>they probably didnt like the present very much</t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -12855,7 +12287,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>I feel a bit left out that I was not there to witness their change</t>
+          <t>im excited to see how my friend has grown, hopefully in better ways</t>
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -12869,7 +12301,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>It would be a bit nervewracking but I would be anticipating that my friend chose the right guy for me</t>
+          <t>pretty nervous but still excited to meet someone new</t>
         </is>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -12883,7 +12315,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>I would imagine doing well at the job and making friends with my colleagues, as well as my job fulfilling every aspect of being my dream job</t>
+          <t>while im excited to start my new dream job, im also thinking about what if it doesnt suit by expectations and what if i hate it and need to get a new job.</t>
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -12897,7 +12329,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>I would feel a sense of contentment that I have come so far in life</t>
+          <t>im grateful for all the important people in my life and all my achievements so i am happy to keep growing year on year</t>
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -12911,7 +12343,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>I would feel nostalgic looking at the memories captured in the pictures and reminisce about my younger days</t>
+          <t>i like looking back on the past because i enjoy seeing how ive grown over the years and going down memory lane.</t>
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -12925,7 +12357,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>I would feel anxious and tense about having to wait even longer to see my results</t>
+          <t>i am already very nervous to see my results so i want to see it asap and the page freezing is unpleasant because it is heightening my anxiety</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -12939,7 +12371,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>I would feel scared of what they are about to say</t>
+          <t>probably something bad happened that i did wrong or not going well in the relationship. not a pleasant convo ahead</t>
         </is>
       </c>
       <c r="C619" t="inlineStr"/>
@@ -12953,7 +12385,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>I would feel scared that it was an attacker but it was a cat instead.</t>
+          <t>i probably see some animal and its most likely nothing that i thought it out to be, not any scary person or something</t>
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
@@ -12967,7 +12399,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>The light is to indicate that my fuel tank is almost empty. I would be grateful for the reminder and that I didn't get stranded on the expressway</t>
+          <t>not really sure what to do there but it would be a scary thought to have a car malfunction while im alone on the road at night</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
@@ -12981,7 +12413,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>I would focus on the good parts of the previous presentation to encourage myself</t>
+          <t>i would still be nervous but thinking back to the last presentation i had which was ok, it gives me some evidence that this presentation would be ok too</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
@@ -12995,7 +12427,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>I would feel very anxious and my mind will focus on possible mistakes that I've made so far</t>
+          <t>probably i messed up somewhere and need to redo something and improve</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
@@ -13009,7 +12441,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>I would feel a bit nervous that everyone's attention is on me and the possibility of being rejected</t>
+          <t>nerve-wracking but still excited to meet this people, whom i assume are in the same industry as me.</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
@@ -13023,7 +12455,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>He has a neutral expression because he is considering the feasibility of my proposed idea</t>
+          <t>maybe i said something wrong or not right despite it being my project and my pitch</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
@@ -13031,6 +12463,1350 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
     </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>40</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>im nervous</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>40</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>hopefully i can get teh job</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>40</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>hopefully he will like it</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>40</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>maybe we can still clique well</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>40</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>what will he think of me</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>40</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>i love my new job</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>40</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>i think i have grown his year</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>40</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>wow i changed for the better</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>40</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>not at this moment its loading</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>40</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>what did i do wrong</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>40</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>hopefully its just a passer by</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>40</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>i should stop and take a look</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>40</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>please turn out well</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>40</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>isit good or bad</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>40</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>why is everyone looking at me</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>40</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>it might be a good expression or bad</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>41</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>I feel prepared and will ace the test.</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>41</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>I imagine myself realising that I have the skillsets they need</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>41</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>I think she was happy</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>41</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Feeling nervous, hope the friendship and chemistry is still there</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>41</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>I am optimistic about having good conversation</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>41</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>I think everything will go swell</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>41</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>I think I have led a great life so far, best I could</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>41</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Feeling nostalgic, good times</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>41</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Gosh, quickly unfreeze, this system is toying with my feelings.</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>41</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Feeling a little concerned about what I might have missed/done wrong in the relationship especially if it is unexpected.</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>41</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>I think it is glorious</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>41</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>No issues man, take life chill it aint that deep</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>41</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Can't lie, always gotta be nervous, but that means Im excited about it</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>41</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>I personally think I did a superb job</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>41</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Smile and wave boys, smile and wave</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>41</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>I imagine the manager smiling at what a good employee I am</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>42</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>If the scenario turns out like what i expected, i would be happy</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>42</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>More realistic so i am less worried</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>42</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>My gift should be good to elicit a reaction</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>42</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>I would be happy to see the friend regardless</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>42</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>I would be worried for my friend</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>42</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>I would be very nervous about the culture and whether im competent enough.</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>42</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>I would feel that time has passed so fast and it is sad</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>42</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Thinking about the past makes me sad but nostalgic</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>42</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>I would be anxious my results are not submitted</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>42</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>I would be worried she is suggesting a break</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>42</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>I would be scared someone is going to rob or mug me</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>42</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>I would be worried there's something wrong which could harm me</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>42</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Usually the presentation goes well so that's what i remember</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>42</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Could be good or bad</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>42</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>I do not like being the centre of attention</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>42</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>He could be forming doubts about my pitch</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>43</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>I imagined the examiner smiling back at me indicating a good result</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>43</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>If i had to ask details about the job I was more than likely underqualified</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>43</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Being happy</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>43</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>I feel excited but slightly nervous to reunite</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>43</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Nervous</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>43</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>I would be proud of myself for achieving my goals</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>43</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>I am very priviliged to live the life i have right now</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>43</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>reflecting on childhood</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>43</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>A good result</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>43</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>I would expect this to be a hard conversation or even a break up</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>43</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>A child</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>43</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>nervous but i would keep driving if i was close to home</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>43</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>I am good at presentations so i would feel more settled</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>43</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>I would be expecting to be told some negative feedback</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>43</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>I would feel awkward</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>43</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>My manager would be smiling</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>44</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>I just sat there and let them do their work and got my results</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>44</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>I feel more confident and got the job</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>44</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>I got what she wanted and shes happy</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>44</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>We finally met each other and are happy</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>44</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>We don't really match with each other but still stay until the end</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>44</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>I learn a lot and make friends</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>44</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>My life getting better</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>44</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>See all the people I used to be close with</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>44</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>I did as well as I expected</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>44</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>he has some things to share with me and its prolly bad news</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>44</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Someone is following me</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>44</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Someone is following me</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>44</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>It was pretty well and I told myself I shouldnt be too nervous</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>44</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>It was great</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>44</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>I join the conversation and we chat happily</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>44</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>He seems happy and I'm getting a raise soon</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>45</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>I managed do well as all the preparation could be used for the oral exam</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>45</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>I could attain this job</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>45</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>She really liked the gift</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>45</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>She had become better and I'm really excited and happy to meet her after so long</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>45</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Met my date and it went okay, just a little nervous</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>45</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>I enjoy and like the new job</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>45</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Felt grateful that my family and friends have always been by my side these few years</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>45</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Saw many memorable memories</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>45</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Extremely nervous, I think I will do well but the freezing of the screen scares me a little</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>45</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>My partner might have some good news or updates to share</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>45</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>I thought it would be some bad person but turns out it is just shadow of a tree</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>45</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>there might be something wrong with my car, hence i had to pull over</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>45</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>i thought about how well my previous presentation was and feel determined to present well tomorrow</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>45</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>My supervisor shared both my strengths and weaknesses</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>45</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Everyone was eager and amiable to talk to</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>45</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>He looked a little dissatisfied with my answer</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
